--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -11,6 +11,8 @@
     <sheet name="Daily Expenses" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Category Analysis" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="M-Pesa Fees" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Outstanding Balances" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Unpaid Labor" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,9 +47,17 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00CC0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00E74C3C"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -58,6 +68,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,14 +95,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -452,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 199,317</t>
+          <t>KES 229,333</t>
         </is>
       </c>
     </row>
@@ -513,7 +532,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 800,683</t>
+          <t>KES 770,667</t>
         </is>
       </c>
     </row>
@@ -525,7 +544,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19.93%</t>
+          <t>22.93%</t>
         </is>
       </c>
     </row>
@@ -537,186 +556,241 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 2,357</t>
+          <t>KES 2,693</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
+          <t>Outstanding Amounts</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Outstanding Balances:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KES 21,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Unpaid Labor:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KES 4,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Pending:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>KES 25,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Effective Balance:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KES 745,367</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
           <t>Category Breakdown</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Amount Spent</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>M-Pesa Fees</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Total Cost</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Budget %</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Metal &amp; Steel</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>78910</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>79928</v>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>7.99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>Building Materials</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>77850</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>894</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>78744</v>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>7.87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Hardware Items</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>15400</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>180</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>15580</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>1.56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Workers Accommodation</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>13500</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>13640</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>1.36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>Transport &amp; Logistics</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>7000</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>7075</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>0.71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Labor Costs</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>3300</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>3340</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>0.33%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>85050</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>969</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>86019</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>8.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>78910</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>79928</v>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>7.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>23180</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>23440</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>15300</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>196</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>15496</v>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Workers Accommodation</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>13500</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>13640</v>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>1.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
           <t>Miscellaneous</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B24" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C24" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D24" s="4" t="n">
         <v>1010</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>0.10%</t>
         </is>
@@ -736,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,6 +826,7 @@
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -795,6 +870,11 @@
           <t>Vendor</t>
         </is>
       </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -831,6 +911,11 @@
           <t>Local Transport</t>
         </is>
       </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -867,6 +952,11 @@
           <t>Transport Company</t>
         </is>
       </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -903,6 +993,11 @@
           <t>Transport Company</t>
         </is>
       </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -939,6 +1034,11 @@
           <t>Local Lodge</t>
         </is>
       </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -975,6 +1075,11 @@
           <t>Property Owner</t>
         </is>
       </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1011,6 +1116,11 @@
           <t>Furniture Store</t>
         </is>
       </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -1047,6 +1157,11 @@
           <t>Sand Supplier</t>
         </is>
       </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1083,6 +1198,11 @@
           <t>Ballast Supplier</t>
         </is>
       </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1119,6 +1239,11 @@
           <t>Block Manufacturer</t>
         </is>
       </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1155,6 +1280,11 @@
           <t>Cement Dealer</t>
         </is>
       </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -1191,6 +1321,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1227,6 +1362,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1263,6 +1403,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1299,6 +1444,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1335,6 +1485,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1371,6 +1526,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1407,6 +1567,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1443,6 +1608,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1479,6 +1649,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1515,6 +1690,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1551,6 +1731,11 @@
           <t>Hardware Store</t>
         </is>
       </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1587,6 +1772,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -1623,6 +1813,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -1659,6 +1854,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1695,6 +1895,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1731,6 +1936,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -1767,6 +1977,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1803,6 +2018,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1839,6 +2059,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1875,6 +2100,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -1911,6 +2141,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1947,6 +2182,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -1983,6 +2223,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -2019,6 +2264,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -2055,6 +2305,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2091,6 +2346,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -2127,6 +2387,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2163,6 +2428,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -2199,6 +2469,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -2235,6 +2510,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -2271,6 +2551,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -2307,6 +2592,11 @@
           <t>Metal Supplier</t>
         </is>
       </c>
+      <c r="I43" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -2343,6 +2633,11 @@
           <t>Worker</t>
         </is>
       </c>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -2379,6 +2674,11 @@
           <t>Worker</t>
         </is>
       </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -2413,6 +2713,462 @@
       <c r="H46" s="4" t="inlineStr">
         <is>
           <t>Unknown</t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Welder deposit</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>12156</v>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
+        <is>
+          <t>Welder</t>
+        </is>
+      </c>
+      <c r="I47" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Tools</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Wheelbarrow</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>4350</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>4390</v>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Tap 1/2"</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>560</v>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Blue drum</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>2625</v>
+      </c>
+      <c r="H50" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Tools</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Hacksaw 14"</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>285</v>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Doors &amp; Windows</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Door Frames 6 @ 1200</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>7275</v>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>Carpenter</t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Worker Transport</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Transport for two electricians to voi</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>2725</v>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>Transport Service</t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>Jack - Daily Labor (UNPAID)</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I54" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - Daily Labor (UNPAID)</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I55" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>Helper 1 - Daily Labor (UNPAID)</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I56" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>Helper 2 - Daily Labor (UNPAID)</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I57" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -2461,29 +3217,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Fee Structure</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Amount Range</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Fee (KES)</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Transactions</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Total Fees</t>
         </is>
@@ -2499,10 +3255,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -2515,10 +3271,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -2531,10 +3287,10 @@
         <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
@@ -2595,7 +3351,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>120</v>
@@ -2611,10 +3367,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2643,10 +3399,10 @@
         <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>156</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15">
@@ -2659,10 +3415,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2671,13 +3427,251 @@
           <t>Total M-Pesa Fees:</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>KES 2,357</t>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>KES 2,693</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>OUTSTANDING BALANCES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Vendor</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Welder</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Remaining balance for welding work</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>21000</v>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>To be scheduled</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Total Outstanding:</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>KES 21,000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UNPAID LABOR EXPENSES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Jack - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Total Unpaid Labor:</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>KES 4,300</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,17 +47,9 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00CC0000"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00E74C3C"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -68,12 +60,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCC"/>
-        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,17 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -520,7 +503,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 229,333</t>
+          <t>KES 269,659</t>
         </is>
       </c>
     </row>
@@ -532,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 770,667</t>
+          <t>KES 730,341</t>
         </is>
       </c>
     </row>
@@ -544,7 +527,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22.93%</t>
+          <t>26.97%</t>
         </is>
       </c>
     </row>
@@ -556,7 +539,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 2,693</t>
+          <t>KES 3,184</t>
         </is>
       </c>
     </row>
@@ -587,7 +570,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 4,300</t>
+          <t>KES 0</t>
         </is>
       </c>
     </row>
@@ -599,7 +582,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 25,300</t>
+          <t>KES 21,000</t>
         </is>
       </c>
     </row>
@@ -611,7 +594,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 745,367</t>
+          <t>KES 709,341</t>
         </is>
       </c>
     </row>
@@ -698,17 +681,17 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>23180</v>
+        <v>37855</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>23440</v>
+        <v>38315</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>3.83%</t>
         </is>
       </c>
     </row>
@@ -719,17 +702,17 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>15300</v>
+        <v>35000</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>15496</v>
+        <v>35422</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>1.55%</t>
+          <t>3.54%</t>
         </is>
       </c>
     </row>
@@ -740,17 +723,17 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>13500</v>
+        <v>16760</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>13640</v>
+        <v>16940</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>1.69%</t>
         </is>
       </c>
     </row>
@@ -761,17 +744,17 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>9700</v>
+        <v>11900</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>9800</v>
+        <v>12025</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>1.20%</t>
         </is>
       </c>
     </row>
@@ -810,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3009,166 +2992,1027 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D54" s="5" t="inlineStr">
-        <is>
-          <t>Jack - Daily Labor (UNPAID)</t>
-        </is>
-      </c>
-      <c r="E54" s="5" t="n">
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Jack - Daily Labor</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="F54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5" t="inlineStr">
+      <c r="F54" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I54" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I54" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - Daily Labor (UNPAID)</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="n">
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="F55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5" t="inlineStr">
+      <c r="F55" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H55" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I55" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I55" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
-          <t>Helper 1 - Daily Labor (UNPAID)</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>500</v>
-      </c>
-      <c r="F56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I56" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I56" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
-        <is>
-          <t>Helper 2 - Daily Labor (UNPAID)</t>
-        </is>
-      </c>
-      <c r="E57" s="5" t="n">
-        <v>500</v>
-      </c>
-      <c r="F57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H57" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I57" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I57" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Electrician Labor for fixing wiring pipes and boxes</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>10096</v>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
+        <is>
+          <t>Electrician</t>
+        </is>
+      </c>
+      <c r="I58" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Worker Transport</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>Transport back to Nairobi</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>2225</v>
+      </c>
+      <c r="H59" s="4" t="inlineStr">
+        <is>
+          <t>Transport Service</t>
+        </is>
+      </c>
+      <c r="I59" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>15"X15" meterbox 1pc</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>2325</v>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>8-way ccu 1pc</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H61" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I61" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>16pcs twin boxes</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>810</v>
+      </c>
+      <c r="H62" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I62" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>13pcs single boxes</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="F63" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>455</v>
+      </c>
+      <c r="H63" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I63" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>60pcs 20mm conduits</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F64" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>5475</v>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>3pcs 25mm conduits</t>
+        </is>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F65" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H65" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I65" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>2pcs 32mm conduits</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>520</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>530</v>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I66" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>80pcs 20mm couplers</t>
+        </is>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="F67" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="H67" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I67" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>10pcs 25mm couplers</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F68" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I68" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>3pcs 32mm couplers</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="F69" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G69" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="H69" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I69" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>3pcs 32mm bends</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="F70" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="H70" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>1pc masking tape</t>
+        </is>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" s="4" t="n">
+        <v>255</v>
+      </c>
+      <c r="H71" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I71" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F72" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I72" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F73" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H73" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I73" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1</t>
+        </is>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F74" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H74" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I74" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F75" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H75" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I75" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F76" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>Helper 4</t>
+        </is>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F77" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H77" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I77" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>Workers Accommodation</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>Food for the workers</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>3260</v>
+      </c>
+      <c r="F78" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G78" s="4" t="n">
+        <v>3300</v>
+      </c>
+      <c r="H78" s="4" t="inlineStr">
+        <is>
+          <t>Local Vendor</t>
+        </is>
+      </c>
+      <c r="I78" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -3217,29 +4061,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Fee Structure</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Amount Range</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Fee (KES)</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Transactions</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Total Fees</t>
         </is>
@@ -3255,10 +4099,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
@@ -3271,10 +4115,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
@@ -3287,10 +4131,10 @@
         <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -3303,10 +4147,10 @@
         <v>96</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>288</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
@@ -3351,10 +4195,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -3367,10 +4211,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
@@ -3415,10 +4259,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -3427,9 +4271,9 @@
           <t>Total M-Pesa Fees:</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>KES 2,693</t>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>KES 3,184</t>
         </is>
       </c>
     </row>
@@ -3508,12 +4352,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Total Outstanding:</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>KES 21,000</t>
         </is>
@@ -3533,7 +4377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3576,95 +4420,15 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Jack - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Helper 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>16/09/2025</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Helper 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>KES 4,300</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>KES 0</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,9 +47,17 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00CC0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00E74C3C"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -60,6 +68,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,14 +95,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -454,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 269,659</t>
+          <t>KES 604,323</t>
         </is>
       </c>
     </row>
@@ -515,7 +532,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 730,341</t>
+          <t>KES 395,677</t>
         </is>
       </c>
     </row>
@@ -527,7 +544,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26.97%</t>
+          <t>60.43%</t>
         </is>
       </c>
     </row>
@@ -539,7 +556,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 3,184</t>
+          <t>KES 7,068</t>
         </is>
       </c>
     </row>
@@ -558,7 +575,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KES 21,000</t>
+          <t>KES 62,400</t>
         </is>
       </c>
     </row>
@@ -570,7 +587,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 0</t>
+          <t>KES 22,400</t>
         </is>
       </c>
     </row>
@@ -582,198 +599,243 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 21,000</t>
+          <t>KES 84,800</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Total Committed:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KES 689,123</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Budget Used (Inclusive):</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>68.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Effective Balance:</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>KES 709,341</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KES 310,877</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Category Breakdown</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>Amount Spent</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>M-Pesa Fees</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>Total Cost</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>Budget %</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Building Materials</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>85050</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>969</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>86019</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>8.60%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>Metal &amp; Steel</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>78910</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>79928</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>7.99%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Hardware Items</t>
+          <t>Building Materials</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>37855</v>
+        <v>183580</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>460</v>
+        <v>2300</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>38315</v>
+        <v>185880</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>18.59%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Labor Costs</t>
+          <t>Metal &amp; Steel</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>35000</v>
+        <v>176310</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>422</v>
+        <v>2090.5</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>35422</v>
+        <v>178400.5</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>3.54%</t>
+          <t>17.84%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Workers Accommodation</t>
+          <t>Hardware Items</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>16760</v>
+        <v>111125</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>180</v>
+        <v>1263.5</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>16940</v>
+        <v>112388.5</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>11.24%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Transport &amp; Logistics</t>
+          <t>Labor Costs</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>11900</v>
+        <v>87700</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>125</v>
+        <v>1004</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>12025</v>
+        <v>88704</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>8.87%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
+          <t>Workers Accommodation</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>16760</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>16940</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>12450</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>12585</v>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>8330</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>8415</v>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
           <t>Miscellaneous</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B27" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C27" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D27" s="4" t="n">
         <v>1010</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>0.10%</t>
         </is>
@@ -793,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4013,6 +4075,5213 @@
       <c r="I78" s="4" t="inlineStr">
         <is>
           <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>Window locks 15 @120</t>
+        </is>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F79" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>1825</v>
+      </c>
+      <c r="H79" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I79" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>Sheets</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>Perforated sheet</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F80" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>4440</v>
+      </c>
+      <c r="H80" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I80" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>Finishing</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>Body filler</t>
+        </is>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F81" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>2225</v>
+      </c>
+      <c r="H81" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I81" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>Dennis</t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F82" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H82" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I82" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H83" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I83" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1</t>
+        </is>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F84" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H84" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I84" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2</t>
+        </is>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F85" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H85" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I85" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3</t>
+        </is>
+      </c>
+      <c r="E86" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F86" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G86" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H86" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I86" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>Helper 4</t>
+        </is>
+      </c>
+      <c r="E87" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F87" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H87" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I87" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>Helper 5</t>
+        </is>
+      </c>
+      <c r="E88" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F88" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H88" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I88" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>Digging the septic tank (paid 4000 of 16000)</t>
+        </is>
+      </c>
+      <c r="E89" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>4040</v>
+      </c>
+      <c r="H89" s="4" t="inlineStr">
+        <is>
+          <t>Excavation Worker</t>
+        </is>
+      </c>
+      <c r="I89" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E90" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F90" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H90" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I90" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F91" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H91" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I91" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1</t>
+        </is>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F92" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H92" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I92" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2</t>
+        </is>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F93" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H93" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I93" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2</t>
+        </is>
+      </c>
+      <c r="E94" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F94" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H94" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I94" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t>5pcs squaretube 3x3x3mm @ 6000</t>
+        </is>
+      </c>
+      <c r="E95" s="4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F95" s="4" t="n">
+        <v>355</v>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>30355</v>
+      </c>
+      <c r="H95" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I95" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>5pcs squaretube 3x2x2mm @ 3500</t>
+        </is>
+      </c>
+      <c r="E96" s="4" t="n">
+        <v>17500</v>
+      </c>
+      <c r="F96" s="4" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>17671.5</v>
+      </c>
+      <c r="H96" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I96" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>4pcs 1.5x1.5x1.5mm @ 1650</t>
+        </is>
+      </c>
+      <c r="E97" s="4" t="n">
+        <v>6600</v>
+      </c>
+      <c r="F97" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>6675</v>
+      </c>
+      <c r="H97" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I97" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>5pcs 1x1x1.5mm @ 950</t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="n">
+        <v>4750</v>
+      </c>
+      <c r="F98" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>4790</v>
+      </c>
+      <c r="H98" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I98" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>Welding</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>2 packets welding rods @ 650</t>
+        </is>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F99" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H99" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I99" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>Tools</t>
+        </is>
+      </c>
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t>2pcs grinding disk 7" @ 250</t>
+        </is>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F100" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>505</v>
+      </c>
+      <c r="H100" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I100" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>Paint</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>4ltrs undercoat @ 1050</t>
+        </is>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F101" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>4240</v>
+      </c>
+      <c r="H101" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I101" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>Paint</t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t>5ltrs thinner @ 1450</t>
+        </is>
+      </c>
+      <c r="E102" s="4" t="n">
+        <v>7250</v>
+      </c>
+      <c r="F102" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G102" s="4" t="n">
+        <v>7325</v>
+      </c>
+      <c r="H102" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I102" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>Sheets</t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t>2pcs plate 6x6 @ 6000</t>
+        </is>
+      </c>
+      <c r="E103" s="4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F103" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>12156</v>
+      </c>
+      <c r="H103" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I103" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t>5pcs 0.75x0.75x18gm @ 500</t>
+        </is>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F104" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G104" s="4" t="n">
+        <v>2525</v>
+      </c>
+      <c r="H104" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I104" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>Water Storage</t>
+        </is>
+      </c>
+      <c r="D105" s="4" t="inlineStr">
+        <is>
+          <t>3,000 ltrs tank</t>
+        </is>
+      </c>
+      <c r="E105" s="4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F105" s="4" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G105" s="4" t="n">
+        <v>20171.5</v>
+      </c>
+      <c r="H105" s="4" t="inlineStr">
+        <is>
+          <t>Tank Supplier</t>
+        </is>
+      </c>
+      <c r="I105" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="E106" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F106" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G106" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H106" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I106" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C107" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E107" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F107" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G107" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H107" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I107" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2</t>
+        </is>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F108" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G108" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H108" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I108" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D109" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3</t>
+        </is>
+      </c>
+      <c r="E109" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F109" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G109" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H109" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I109" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1</t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F110" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H110" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I110" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2</t>
+        </is>
+      </c>
+      <c r="E111" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F111" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H111" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I111" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3</t>
+        </is>
+      </c>
+      <c r="E112" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F112" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H112" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I112" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t>Excavation work payment</t>
+        </is>
+      </c>
+      <c r="E113" s="4" t="n">
+        <v>5600</v>
+      </c>
+      <c r="F113" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G113" s="4" t="n">
+        <v>5675</v>
+      </c>
+      <c r="H113" s="4" t="inlineStr">
+        <is>
+          <t>Excavation Worker</t>
+        </is>
+      </c>
+      <c r="I113" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>Water payment</t>
+        </is>
+      </c>
+      <c r="E114" s="4" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F114" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G114" s="4" t="n">
+        <v>4440</v>
+      </c>
+      <c r="H114" s="4" t="inlineStr">
+        <is>
+          <t>Water Utility</t>
+        </is>
+      </c>
+      <c r="I114" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>Plumber payment</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F115" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G115" s="4" t="n">
+        <v>5040</v>
+      </c>
+      <c r="H115" s="4" t="inlineStr">
+        <is>
+          <t>Plumber</t>
+        </is>
+      </c>
+      <c r="I115" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>10pcs PPR Pipes 3/4 @ 350</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F116" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H116" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I116" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t>20pcs PPR elbows 3/4 @ 40</t>
+        </is>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="F117" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>810</v>
+      </c>
+      <c r="H117" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I117" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>5pcs PPR female elbow 3/4 X 1/2" @ 90</t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="F118" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>455</v>
+      </c>
+      <c r="H118" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I118" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>10pcs PPR Tee 25mm @ 40</t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="F119" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="H119" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I119" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>3pcs PPR female Tee 25mm x 1/2" @ 90</t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="n">
+        <v>270</v>
+      </c>
+      <c r="F120" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>275</v>
+      </c>
+      <c r="H120" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t>2pcs connected stop cork @ 1200</t>
+        </is>
+      </c>
+      <c r="E121" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F121" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>2425</v>
+      </c>
+      <c r="H121" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I121" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>5pcs Male adapters 25mm x 1/2" @ 90</t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="F122" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>455</v>
+      </c>
+      <c r="H122" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I122" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>10pcs thread tape large @ 100</t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F123" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H123" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I123" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>Kitchen</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>1pc Kitchen sink</t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F124" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>1875</v>
+      </c>
+      <c r="H124" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t>2pcs waste pipe 1 1/2" @ 500</t>
+        </is>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F125" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H125" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I125" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t>2pcs inspection tee 1 1/2" @ 160</t>
+        </is>
+      </c>
+      <c r="E126" s="4" t="n">
+        <v>320</v>
+      </c>
+      <c r="F126" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="H126" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I126" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>250ml tangit glue</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="F127" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>560</v>
+      </c>
+      <c r="H127" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I127" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t>2pcs floor trap 4 way @ 550</t>
+        </is>
+      </c>
+      <c r="E128" s="4" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F128" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" s="4" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H128" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I128" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>1pc floor trap 1 way</t>
+        </is>
+      </c>
+      <c r="E129" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="F129" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" s="4" t="n">
+        <v>455</v>
+      </c>
+      <c r="H129" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I129" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>2pcs inspection bend 4" @ 380</t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="n">
+        <v>760</v>
+      </c>
+      <c r="F130" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" s="4" t="n">
+        <v>770</v>
+      </c>
+      <c r="H130" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t>3pcs waste bend 4" @ 250</t>
+        </is>
+      </c>
+      <c r="E131" s="4" t="n">
+        <v>750</v>
+      </c>
+      <c r="F131" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" s="4" t="n">
+        <v>760</v>
+      </c>
+      <c r="H131" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I131" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t>1pc vent cup 4"</t>
+        </is>
+      </c>
+      <c r="E132" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F132" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="H132" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I132" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t>6pcs manhole cover 450x450mm @ 1200</t>
+        </is>
+      </c>
+      <c r="E133" s="4" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F133" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G133" s="4" t="n">
+        <v>7275</v>
+      </c>
+      <c r="H133" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I133" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t>2pcs bib tap @ 1200</t>
+        </is>
+      </c>
+      <c r="E134" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F134" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G134" s="4" t="n">
+        <v>2425</v>
+      </c>
+      <c r="H134" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I134" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>3pcs Gate valve 3/4 @ 850</t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="n">
+        <v>2550</v>
+      </c>
+      <c r="F135" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G135" s="4" t="n">
+        <v>2575</v>
+      </c>
+      <c r="H135" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I135" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>7pcs male adapters 25mm @ 100</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="F136" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" s="4" t="n">
+        <v>710</v>
+      </c>
+      <c r="H136" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I136" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>1pc gulley trap 4"</t>
+        </is>
+      </c>
+      <c r="E137" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="F137" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" s="4" t="n">
+        <v>255</v>
+      </c>
+      <c r="H137" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I137" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>4pcs waste pipe 4" @ 450</t>
+        </is>
+      </c>
+      <c r="E138" s="4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F138" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G138" s="4" t="n">
+        <v>1825</v>
+      </c>
+      <c r="H138" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I138" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t>3pcs PPR pipe 1" @ 450</t>
+        </is>
+      </c>
+      <c r="E139" s="4" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F139" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G139" s="4" t="n">
+        <v>1365</v>
+      </c>
+      <c r="H139" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I139" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t>5pcs PPR elbow 1" @ 80</t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="F140" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G140" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="H140" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I140" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t>5pcs PPR Tee 1" @ 80</t>
+        </is>
+      </c>
+      <c r="E141" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="F141" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="H141" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I141" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t>40ft 4x2 cypress @ 58</t>
+        </is>
+      </c>
+      <c r="E142" s="4" t="n">
+        <v>2320</v>
+      </c>
+      <c r="F142" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G142" s="4" t="n">
+        <v>2345</v>
+      </c>
+      <c r="H142" s="4" t="inlineStr">
+        <is>
+          <t>Timber Supplier</t>
+        </is>
+      </c>
+      <c r="I142" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t>180ft 3x2 cypress @ 47</t>
+        </is>
+      </c>
+      <c r="E143" s="4" t="n">
+        <v>8460</v>
+      </c>
+      <c r="F143" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G143" s="4" t="n">
+        <v>8556</v>
+      </c>
+      <c r="H143" s="4" t="inlineStr">
+        <is>
+          <t>Timber Supplier</t>
+        </is>
+      </c>
+      <c r="I143" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>Fasteners</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>4kg nails 5" @ 200</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="F144" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" s="4" t="n">
+        <v>810</v>
+      </c>
+      <c r="H144" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I144" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>Fasteners</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t>5kg binding @ 200</t>
+        </is>
+      </c>
+      <c r="E145" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F145" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H145" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I145" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>Tools</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>1pc mabati scissors</t>
+        </is>
+      </c>
+      <c r="E146" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F146" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H146" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I146" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>Cement</t>
+        </is>
+      </c>
+      <c r="D147" s="4" t="inlineStr">
+        <is>
+          <t>40 bags simba cement @ 720</t>
+        </is>
+      </c>
+      <c r="E147" s="4" t="n">
+        <v>28800</v>
+      </c>
+      <c r="F147" s="4" t="n">
+        <v>355</v>
+      </c>
+      <c r="G147" s="4" t="n">
+        <v>29155</v>
+      </c>
+      <c r="H147" s="4" t="inlineStr">
+        <is>
+          <t>Cement Dealer</t>
+        </is>
+      </c>
+      <c r="I147" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>8pcs GT nipple 1/2" @ 30</t>
+        </is>
+      </c>
+      <c r="E148" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="F148" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="H148" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I148" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D149" s="4" t="inlineStr">
+        <is>
+          <t>7pcs GT socket 1/2" @ 30</t>
+        </is>
+      </c>
+      <c r="E149" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="F149" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="H149" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I149" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B150" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C150" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D150" s="4" t="inlineStr">
+        <is>
+          <t>8pcs GT plug 1/2" @ 50</t>
+        </is>
+      </c>
+      <c r="E150" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="F150" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G150" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="H150" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I150" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B151" s="5" t="inlineStr">
+        <is>
+          <t>Labor</t>
+        </is>
+      </c>
+      <c r="C151" s="5" t="inlineStr">
+        <is>
+          <t>Construction Labor</t>
+        </is>
+      </c>
+      <c r="D151" s="5" t="inlineStr">
+        <is>
+          <t>Charles - UNPAID</t>
+        </is>
+      </c>
+      <c r="E151" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F151" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" s="5" t="inlineStr">
+        <is>
+          <t>Charles Kamau</t>
+        </is>
+      </c>
+      <c r="I151" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B152" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C152" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D152" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E152" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F152" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I152" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B153" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C153" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E153" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F153" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I153" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B154" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E154" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F154" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I154" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B155" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D155" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E155" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F155" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I155" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr">
+        <is>
+          <t>Helper 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E156" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F156" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I156" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
+        <is>
+          <t>Helper 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F157" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I157" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B158" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C158" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D158" s="5" t="inlineStr">
+        <is>
+          <t>Helper 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E158" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F158" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I158" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B159" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C159" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t>Plumber payment</t>
+        </is>
+      </c>
+      <c r="E159" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F159" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G159" s="4" t="n">
+        <v>10096</v>
+      </c>
+      <c r="H159" s="4" t="inlineStr">
+        <is>
+          <t>Plumber</t>
+        </is>
+      </c>
+      <c r="I159" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B160" s="4" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C160" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D160" s="4" t="inlineStr">
+        <is>
+          <t>Water payment</t>
+        </is>
+      </c>
+      <c r="E160" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="F160" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="H160" s="4" t="inlineStr">
+        <is>
+          <t>Water Utility</t>
+        </is>
+      </c>
+      <c r="I160" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B161" s="4" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C161" s="4" t="inlineStr">
+        <is>
+          <t>Logistics</t>
+        </is>
+      </c>
+      <c r="D161" s="4" t="inlineStr">
+        <is>
+          <t>Deo logistics</t>
+        </is>
+      </c>
+      <c r="E161" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="F161" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" s="4" t="n">
+        <v>560</v>
+      </c>
+      <c r="H161" s="4" t="inlineStr">
+        <is>
+          <t>Logistics Provider</t>
+        </is>
+      </c>
+      <c r="I161" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B162" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C162" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D162" s="4" t="inlineStr">
+        <is>
+          <t>4pcs waste pipe 4" @ 450</t>
+        </is>
+      </c>
+      <c r="E162" s="4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F162" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G162" s="4" t="n">
+        <v>1825</v>
+      </c>
+      <c r="H162" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I162" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D163" s="4" t="inlineStr">
+        <is>
+          <t>4pcs inspection tee 4" @ 250</t>
+        </is>
+      </c>
+      <c r="E163" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F163" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G163" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H163" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I163" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B164" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D164" s="4" t="inlineStr">
+        <is>
+          <t>2pcs inspection bend 4" @ 380</t>
+        </is>
+      </c>
+      <c r="E164" s="4" t="n">
+        <v>760</v>
+      </c>
+      <c r="F164" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G164" s="4" t="n">
+        <v>770</v>
+      </c>
+      <c r="H164" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I164" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>2pcs waste bend 4" @ 250</t>
+        </is>
+      </c>
+      <c r="E165" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F165" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G165" s="4" t="n">
+        <v>505</v>
+      </c>
+      <c r="H165" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I165" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>1pc waste rest bend 4" x 2"</t>
+        </is>
+      </c>
+      <c r="E166" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="F166" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G166" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="H166" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I166" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D167" s="4" t="inlineStr">
+        <is>
+          <t>1pc waste coupling 4"</t>
+        </is>
+      </c>
+      <c r="E167" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="F167" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G167" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="H167" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I167" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>1pc Y junctions 4"</t>
+        </is>
+      </c>
+      <c r="E168" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="F168" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G168" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="H168" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I168" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
+          <t>2pcs PPR cap 25mm @ 40</t>
+        </is>
+      </c>
+      <c r="E169" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F169" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="H169" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I169" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B170" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C170" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D170" s="4" t="inlineStr">
+        <is>
+          <t>2pcs PPR caps 1" @ 80</t>
+        </is>
+      </c>
+      <c r="E170" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="F170" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G170" s="4" t="n">
+        <v>165</v>
+      </c>
+      <c r="H170" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I170" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B171" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C171" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D171" s="4" t="inlineStr">
+        <is>
+          <t>3pcs sink trap @ 100</t>
+        </is>
+      </c>
+      <c r="E171" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="F171" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G171" s="4" t="n">
+        <v>305</v>
+      </c>
+      <c r="H171" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I171" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B172" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C172" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D172" s="4" t="inlineStr">
+        <is>
+          <t>6pcs male adapters 1" @ 100</t>
+        </is>
+      </c>
+      <c r="E172" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F172" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G172" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H172" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I172" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B173" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C173" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D173" s="4" t="inlineStr">
+        <is>
+          <t>6pcs female adapters 1" @ 100</t>
+        </is>
+      </c>
+      <c r="E173" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F173" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G173" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H173" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I173" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B174" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C174" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D174" s="4" t="inlineStr">
+        <is>
+          <t>250ml tangit glue</t>
+        </is>
+      </c>
+      <c r="E174" s="4" t="n">
+        <v>550</v>
+      </c>
+      <c r="F174" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G174" s="4" t="n">
+        <v>560</v>
+      </c>
+      <c r="H174" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I174" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B175" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C175" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D175" s="4" t="inlineStr">
+        <is>
+          <t>1pc valve 3/4" brass</t>
+        </is>
+      </c>
+      <c r="E175" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F175" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G175" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H175" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I175" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B176" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D176" s="4" t="inlineStr">
+        <is>
+          <t>5m lay flat 1/2" @ 80</t>
+        </is>
+      </c>
+      <c r="E176" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="F176" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G176" s="4" t="n">
+        <v>405</v>
+      </c>
+      <c r="H176" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I176" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B177" s="4" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C177" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D177" s="4" t="inlineStr">
+        <is>
+          <t>Water 3000 ltrs @ 1250</t>
+        </is>
+      </c>
+      <c r="E177" s="4" t="n">
+        <v>3750</v>
+      </c>
+      <c r="F177" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G177" s="4" t="n">
+        <v>3790</v>
+      </c>
+      <c r="H177" s="4" t="inlineStr">
+        <is>
+          <t>Water Utility</t>
+        </is>
+      </c>
+      <c r="I177" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B178" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C178" s="4" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="D178" s="4" t="inlineStr">
+        <is>
+          <t>220ft Faceboard 8X1 cypress @ 95</t>
+        </is>
+      </c>
+      <c r="E178" s="4" t="n">
+        <v>20900</v>
+      </c>
+      <c r="F178" s="4" t="n">
+        <v>355</v>
+      </c>
+      <c r="G178" s="4" t="n">
+        <v>21255</v>
+      </c>
+      <c r="H178" s="4" t="inlineStr">
+        <is>
+          <t>Timber Supplier</t>
+        </is>
+      </c>
+      <c r="I178" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B179" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>Fasteners</t>
+        </is>
+      </c>
+      <c r="D179" s="4" t="inlineStr">
+        <is>
+          <t>3kg Roof Nails @ 300</t>
+        </is>
+      </c>
+      <c r="E179" s="4" t="n">
+        <v>900</v>
+      </c>
+      <c r="F179" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G179" s="4" t="n">
+        <v>910</v>
+      </c>
+      <c r="H179" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I179" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B180" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>Roofing</t>
+        </is>
+      </c>
+      <c r="D180" s="4" t="inlineStr">
+        <is>
+          <t>2pkts rubbers cups @ 100</t>
+        </is>
+      </c>
+      <c r="E180" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F180" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G180" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="H180" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I180" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B181" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="D181" s="4" t="inlineStr">
+        <is>
+          <t>30ft 3X2 bluegum @ 35</t>
+        </is>
+      </c>
+      <c r="E181" s="4" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F181" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G181" s="4" t="n">
+        <v>1065</v>
+      </c>
+      <c r="H181" s="4" t="inlineStr">
+        <is>
+          <t>Timber Supplier</t>
+        </is>
+      </c>
+      <c r="I181" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B182" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C182" s="4" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="D182" s="4" t="inlineStr">
+        <is>
+          <t>50ft 6X1 bluegum @ 40</t>
+        </is>
+      </c>
+      <c r="E182" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F182" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G182" s="4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H182" s="4" t="inlineStr">
+        <is>
+          <t>Timber Supplier</t>
+        </is>
+      </c>
+      <c r="I182" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B183" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C183" s="4" t="inlineStr">
+        <is>
+          <t>Roofing</t>
+        </is>
+      </c>
+      <c r="D183" s="4" t="inlineStr">
+        <is>
+          <t>15pcs 3mtr Iron sheets @ 1650</t>
+        </is>
+      </c>
+      <c r="E183" s="4" t="n">
+        <v>24750</v>
+      </c>
+      <c r="F183" s="4" t="n">
+        <v>355</v>
+      </c>
+      <c r="G183" s="4" t="n">
+        <v>25105</v>
+      </c>
+      <c r="H183" s="4" t="inlineStr">
+        <is>
+          <t>Roofing Supplier</t>
+        </is>
+      </c>
+      <c r="I183" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B184" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C184" s="4" t="inlineStr">
+        <is>
+          <t>Roofing</t>
+        </is>
+      </c>
+      <c r="D184" s="4" t="inlineStr">
+        <is>
+          <t>6pcs ridges maasai red @ 650</t>
+        </is>
+      </c>
+      <c r="E184" s="4" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F184" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G184" s="4" t="n">
+        <v>3940</v>
+      </c>
+      <c r="H184" s="4" t="inlineStr">
+        <is>
+          <t>Roofing Supplier</t>
+        </is>
+      </c>
+      <c r="I184" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B185" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C185" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D185" s="4" t="inlineStr">
+        <is>
+          <t>1pc PVC pipe 4" @ 1500</t>
+        </is>
+      </c>
+      <c r="E185" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F185" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G185" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H185" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplier</t>
+        </is>
+      </c>
+      <c r="I185" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B186" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C186" s="4" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D186" s="4" t="inlineStr">
+        <is>
+          <t>5pcs Dio @ 950</t>
+        </is>
+      </c>
+      <c r="E186" s="4" t="n">
+        <v>4750</v>
+      </c>
+      <c r="F186" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G186" s="4" t="n">
+        <v>4790</v>
+      </c>
+      <c r="H186" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Supplier</t>
+        </is>
+      </c>
+      <c r="I186" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B187" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C187" s="4" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="D187" s="4" t="inlineStr">
+        <is>
+          <t>40ft 6x9 @ 45</t>
+        </is>
+      </c>
+      <c r="E187" s="4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F187" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G187" s="4" t="n">
+        <v>1825</v>
+      </c>
+      <c r="H187" s="4" t="inlineStr">
+        <is>
+          <t>Timber Supplier</t>
+        </is>
+      </c>
+      <c r="I187" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B188" s="4" t="inlineStr">
+        <is>
+          <t>Metal &amp; Steel</t>
+        </is>
+      </c>
+      <c r="C188" s="4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="D188" s="4" t="inlineStr">
+        <is>
+          <t>3pcs squaretube 1 1/2x1 @ 800</t>
+        </is>
+      </c>
+      <c r="E188" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F188" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G188" s="4" t="n">
+        <v>2425</v>
+      </c>
+      <c r="H188" s="4" t="inlineStr">
+        <is>
+          <t>Metal Supplier</t>
+        </is>
+      </c>
+      <c r="I188" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B189" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C189" s="4" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="D189" s="4" t="inlineStr">
+        <is>
+          <t>2 pairs flap hinges @ 150</t>
+        </is>
+      </c>
+      <c r="E189" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="F189" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G189" s="4" t="n">
+        <v>305</v>
+      </c>
+      <c r="H189" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I189" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B190" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C190" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D190" s="4" t="inlineStr">
+        <is>
+          <t>Welder payment</t>
+        </is>
+      </c>
+      <c r="E190" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F190" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G190" s="4" t="n">
+        <v>10096</v>
+      </c>
+      <c r="H190" s="4" t="inlineStr">
+        <is>
+          <t>Welder</t>
+        </is>
+      </c>
+      <c r="I190" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B191" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C191" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D191" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E191" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F191" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I191" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B192" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C192" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D192" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E192" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F192" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I192" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D193" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E193" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F193" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I193" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C194" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D194" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E194" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F194" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I194" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C195" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D195" s="5" t="inlineStr">
+        <is>
+          <t>Helper 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E195" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F195" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I195" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B196" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C196" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D196" s="5" t="inlineStr">
+        <is>
+          <t>Helper 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E196" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F196" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I196" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B197" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="inlineStr">
+        <is>
+          <t>Helper 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E197" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F197" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I197" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B198" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C198" s="4" t="inlineStr">
+        <is>
+          <t>Sand</t>
+        </is>
+      </c>
+      <c r="D198" s="4" t="inlineStr">
+        <is>
+          <t>Sand</t>
+        </is>
+      </c>
+      <c r="E198" s="4" t="n">
+        <v>4550</v>
+      </c>
+      <c r="F198" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G198" s="4" t="n">
+        <v>4590</v>
+      </c>
+      <c r="H198" s="4" t="inlineStr">
+        <is>
+          <t>Sand Supplier</t>
+        </is>
+      </c>
+      <c r="I198" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B199" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C199" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D199" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E199" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F199" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I199" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B200" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C200" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D200" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E200" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F200" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I200" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B201" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C201" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D201" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E201" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F201" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I201" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="5" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B202" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C202" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D202" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E202" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F202" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I202" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="5" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C203" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D203" s="5" t="inlineStr">
+        <is>
+          <t>Helper 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E203" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F203" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I203" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B204" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C204" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D204" s="5" t="inlineStr">
+        <is>
+          <t>Helper 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E204" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F204" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I204" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B205" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C205" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D205" s="5" t="inlineStr">
+        <is>
+          <t>Helper 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E205" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F205" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I205" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -4045,7 +9314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4061,29 +9330,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Fee Structure</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Amount Range</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Fee (KES)</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Transactions</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Total Fees</t>
         </is>
@@ -4099,10 +9368,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -4115,10 +9384,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7">
@@ -4131,10 +9400,10 @@
         <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -4147,10 +9416,10 @@
         <v>96</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>384</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9">
@@ -4163,10 +9432,10 @@
         <v>171.5</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>343</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10">
@@ -4195,10 +9464,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>165</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12">
@@ -4211,10 +9480,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D12" t="n">
-        <v>210</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -4227,10 +9496,10 @@
         <v>355</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>355</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="14">
@@ -4243,10 +9512,10 @@
         <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>312</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15">
@@ -4259,21 +9528,37 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>50-100</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Total M-Pesa Fees:</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>KES 3,184</t>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>KES 7,068</t>
         </is>
       </c>
     </row>
@@ -4288,7 +9573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4339,11 +9624,11 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Remaining balance for welding work</t>
+          <t>Remaining balance for welding work (26000 of 48000)</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
@@ -4351,15 +9636,75 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Excavation Worker</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Remaining balance for septic tank digging (6400 of 16000)</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>6400</v>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>To be scheduled</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Electrician</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Remaining balance for electrical work (18000 of 28000)</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>To be scheduled</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Plumber</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Remaining balance for plumbing work (12000 of 27000)</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>To be scheduled</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Total Outstanding:</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>KES 21,000</t>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>KES 62,400</t>
         </is>
       </c>
     </row>
@@ -4377,7 +9722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4420,15 +9765,455 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Jack - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Charles - Construction Labor</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Jack - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Jack - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>KES 0</t>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>KES 22,400</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 604,323</t>
+          <t>KES 610,943</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 395,677</t>
+          <t>KES 389,057</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>60.43%</t>
+          <t>61.09%</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 7,068</t>
+          <t>KES 7,168</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KES 62,400</t>
+          <t>KES 54,400</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 22,400</t>
+          <t>KES 30,200</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 84,800</t>
+          <t>KES 84,600</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 689,123</t>
+          <t>KES 695,543</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>68.91%</t>
+          <t>69.55%</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES 310,877</t>
+          <t>KES 304,457</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>111125</v>
+        <v>112545</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1263.5</v>
+        <v>1288.5</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>112388.5</v>
+        <v>113833.5</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>11.24%</t>
+          <t>11.38%</t>
         </is>
       </c>
     </row>
@@ -823,19 +823,40 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
+          <t>Utilities &amp; Services</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>5100</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>5175</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
           <t>Miscellaneous</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B28" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C28" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D28" s="4" t="n">
         <v>1010</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>0.10%</t>
         </is>
@@ -855,7 +876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9280,6 +9301,498 @@
         </is>
       </c>
       <c r="I205" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B206" s="4" t="inlineStr">
+        <is>
+          <t>Utilities &amp; Services</t>
+        </is>
+      </c>
+      <c r="C206" s="4" t="inlineStr">
+        <is>
+          <t>Water Connection</t>
+        </is>
+      </c>
+      <c r="D206" s="4" t="inlineStr">
+        <is>
+          <t>Water connection</t>
+        </is>
+      </c>
+      <c r="E206" s="4" t="n">
+        <v>5100</v>
+      </c>
+      <c r="F206" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G206" s="4" t="n">
+        <v>5175</v>
+      </c>
+      <c r="H206" s="4" t="inlineStr">
+        <is>
+          <t>Water Company</t>
+        </is>
+      </c>
+      <c r="I206" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B207" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C207" s="4" t="inlineStr">
+        <is>
+          <t>Tools &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="D207" s="4" t="inlineStr">
+        <is>
+          <t>Rope</t>
+        </is>
+      </c>
+      <c r="E207" s="4" t="n">
+        <v>620</v>
+      </c>
+      <c r="F207" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G207" s="4" t="n">
+        <v>630</v>
+      </c>
+      <c r="H207" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I207" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B208" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C208" s="4" t="inlineStr">
+        <is>
+          <t>Roofing Materials</t>
+        </is>
+      </c>
+      <c r="D208" s="4" t="inlineStr">
+        <is>
+          <t>2kg roofing nails @ 300 each</t>
+        </is>
+      </c>
+      <c r="E208" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F208" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G208" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H208" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I208" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B209" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C209" s="4" t="inlineStr">
+        <is>
+          <t>Roofing Materials</t>
+        </is>
+      </c>
+      <c r="D209" s="4" t="inlineStr">
+        <is>
+          <t>2 packets roofing rubbers @ 100 each</t>
+        </is>
+      </c>
+      <c r="E209" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F209" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G209" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="H209" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I209" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B210" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C210" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D210" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E210" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F210" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I210" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B211" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C211" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D211" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E211" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F211" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I211" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B212" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C212" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D212" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E212" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F212" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I212" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B213" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C213" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D213" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E213" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F213" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I213" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B214" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C214" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D214" s="5" t="inlineStr">
+        <is>
+          <t>Helper 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E214" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F214" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I214" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B215" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C215" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D215" s="5" t="inlineStr">
+        <is>
+          <t>Helper 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E215" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F215" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I215" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B216" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C216" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D216" s="5" t="inlineStr">
+        <is>
+          <t>Helper 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E216" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F216" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I216" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="5" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B217" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C217" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D217" s="5" t="inlineStr">
+        <is>
+          <t>Helper 4 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E217" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="F217" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I217" s="6" t="inlineStr">
         <is>
           <t>UNPAID</t>
         </is>
@@ -9400,10 +9913,10 @@
         <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>600</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8">
@@ -9464,7 +9977,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
         <v>390</v>
@@ -9480,10 +9993,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D12" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
@@ -9528,10 +10041,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -9558,7 +10071,7 @@
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>KES 7,068</t>
+          <t>KES 7,168</t>
         </is>
       </c>
     </row>
@@ -9624,15 +10137,15 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Remaining balance for welding work (26000 of 48000)</t>
+          <t>Remaining balance for welding work (18000 of 40000)</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>To be scheduled</t>
+          <t>24/09/2025</t>
         </is>
       </c>
     </row>
@@ -9704,7 +10217,7 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>KES 62,400</t>
+          <t>KES 54,400</t>
         </is>
       </c>
     </row>
@@ -9722,7 +10235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10205,15 +10718,175 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Jack - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D29" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Helper 4 - Daily Labor</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>KES 22,400</t>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>KES 30,200</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,17 +47,9 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00CC0000"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00E74C3C"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -68,12 +60,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCC"/>
-        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,17 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -520,7 +503,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 610,943</t>
+          <t>KES 749,413</t>
         </is>
       </c>
     </row>
@@ -532,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 389,057</t>
+          <t>KES 250,587</t>
         </is>
       </c>
     </row>
@@ -544,7 +527,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>61.09%</t>
+          <t>74.94%</t>
         </is>
       </c>
     </row>
@@ -556,7 +539,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 7,168</t>
+          <t>KES 8,668</t>
         </is>
       </c>
     </row>
@@ -587,7 +570,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 30,200</t>
+          <t>KES 0</t>
         </is>
       </c>
     </row>
@@ -599,7 +582,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 84,600</t>
+          <t>KES 54,400</t>
         </is>
       </c>
     </row>
@@ -611,7 +594,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 695,543</t>
+          <t>KES 803,813</t>
         </is>
       </c>
     </row>
@@ -623,7 +606,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>69.55%</t>
+          <t>80.38%</t>
         </is>
       </c>
     </row>
@@ -635,7 +618,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES 304,457</t>
+          <t>KES 196,187</t>
         </is>
       </c>
     </row>
@@ -676,84 +659,84 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Building Materials</t>
+          <t>Labor Costs</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>183580</v>
+        <v>200900</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>2300</v>
+        <v>2181</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>185880</v>
+        <v>203081</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>18.59%</t>
+          <t>20.31%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Metal &amp; Steel</t>
+          <t>Building Materials</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>176310</v>
+        <v>183580</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>2090.5</v>
+        <v>2300</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>178400.5</v>
+        <v>185880</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>17.84%</t>
+          <t>18.59%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Hardware Items</t>
+          <t>Metal &amp; Steel</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>112545</v>
+        <v>176310</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1288.5</v>
+        <v>2090.5</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>113833.5</v>
+        <v>178400.5</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>11.38%</t>
+          <t>17.84%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Labor Costs</t>
+          <t>Hardware Items</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>87700</v>
+        <v>130215</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>1004</v>
+        <v>1541.5</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>88704</v>
+        <v>131756.5</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>8.87%</t>
+          <t>13.18%</t>
         </is>
       </c>
     </row>
@@ -764,17 +747,17 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>16760</v>
+        <v>17760</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>16940</v>
+        <v>17950</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>1.80%</t>
         </is>
       </c>
     </row>
@@ -785,17 +768,17 @@
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>12450</v>
+        <v>16550</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>12585</v>
+        <v>16735</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.67%</t>
         </is>
       </c>
     </row>
@@ -848,17 +831,17 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>1010</v>
+        <v>2020</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.20%</t>
         </is>
       </c>
     </row>
@@ -876,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7052,330 +7035,330 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="5" t="inlineStr">
+      <c r="A151" s="4" t="inlineStr">
         <is>
           <t>21/09/2025</t>
         </is>
       </c>
-      <c r="B151" s="5" t="inlineStr">
-        <is>
-          <t>Labor</t>
-        </is>
-      </c>
-      <c r="C151" s="5" t="inlineStr">
-        <is>
-          <t>Construction Labor</t>
-        </is>
-      </c>
-      <c r="D151" s="5" t="inlineStr">
-        <is>
-          <t>Charles - UNPAID</t>
-        </is>
-      </c>
-      <c r="E151" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F151" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" s="5" t="inlineStr">
-        <is>
-          <t>Charles Kamau</t>
-        </is>
-      </c>
-      <c r="I151" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C151" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D151" s="4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="E151" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F151" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G151" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H151" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I151" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="inlineStr">
+      <c r="A152" s="4" t="inlineStr">
         <is>
           <t>21/09/2025</t>
         </is>
       </c>
-      <c r="B152" s="5" t="inlineStr">
+      <c r="B152" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C152" s="5" t="inlineStr">
+      <c r="C152" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D152" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E152" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F152" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" s="5" t="inlineStr">
+      <c r="D152" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E152" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F152" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G152" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H152" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I152" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I152" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="5" t="inlineStr">
+      <c r="A153" s="4" t="inlineStr">
         <is>
           <t>21/09/2025</t>
         </is>
       </c>
-      <c r="B153" s="5" t="inlineStr">
+      <c r="B153" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C153" s="5" t="inlineStr">
+      <c r="C153" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D153" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E153" s="5" t="n">
+      <c r="D153" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2</t>
+        </is>
+      </c>
+      <c r="E153" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="F153" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" s="5" t="inlineStr">
+      <c r="F153" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G153" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H153" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I153" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I153" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="inlineStr">
+      <c r="A154" s="4" t="inlineStr">
         <is>
           <t>21/09/2025</t>
         </is>
       </c>
-      <c r="B154" s="5" t="inlineStr">
+      <c r="B154" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C154" s="5" t="inlineStr">
+      <c r="C154" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D154" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E154" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F154" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" s="5" t="inlineStr">
+      <c r="D154" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3</t>
+        </is>
+      </c>
+      <c r="E154" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F154" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G154" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H154" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I154" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I154" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="inlineStr">
+      <c r="A155" s="4" t="inlineStr">
         <is>
           <t>21/09/2025</t>
         </is>
       </c>
-      <c r="B155" s="5" t="inlineStr">
+      <c r="B155" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C155" s="5" t="inlineStr">
+      <c r="C155" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D155" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 3 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E155" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F155" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" s="5" t="inlineStr">
+      <c r="D155" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1</t>
+        </is>
+      </c>
+      <c r="E155" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F155" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G155" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H155" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I155" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I155" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="inlineStr">
+      <c r="A156" s="4" t="inlineStr">
         <is>
           <t>21/09/2025</t>
         </is>
       </c>
-      <c r="B156" s="5" t="inlineStr">
+      <c r="B156" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C156" s="5" t="inlineStr">
+      <c r="C156" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D156" s="5" t="inlineStr">
-        <is>
-          <t>Helper 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E156" s="5" t="n">
+      <c r="D156" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2</t>
+        </is>
+      </c>
+      <c r="E156" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="F156" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" s="5" t="inlineStr">
+      <c r="F156" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H156" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I156" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I156" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="inlineStr">
+      <c r="A157" s="4" t="inlineStr">
         <is>
           <t>21/09/2025</t>
         </is>
       </c>
-      <c r="B157" s="5" t="inlineStr">
+      <c r="B157" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C157" s="5" t="inlineStr">
+      <c r="C157" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D157" s="5" t="inlineStr">
-        <is>
-          <t>Helper 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E157" s="5" t="n">
+      <c r="D157" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3</t>
+        </is>
+      </c>
+      <c r="E157" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="F157" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" s="5" t="inlineStr">
+      <c r="F157" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H157" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I157" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I157" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="inlineStr">
+      <c r="A158" s="4" t="inlineStr">
         <is>
           <t>21/09/2025</t>
         </is>
       </c>
-      <c r="B158" s="5" t="inlineStr">
+      <c r="B158" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C158" s="5" t="inlineStr">
-        <is>
-          <t>Daily Labor</t>
-        </is>
-      </c>
-      <c r="D158" s="5" t="inlineStr">
-        <is>
-          <t>Helper 3 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E158" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="F158" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" s="5" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="I158" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="C158" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t>Plumber payment</t>
+        </is>
+      </c>
+      <c r="E158" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F158" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G158" s="4" t="n">
+        <v>10096</v>
+      </c>
+      <c r="H158" s="4" t="inlineStr">
+        <is>
+          <t>Plumber</t>
+        </is>
+      </c>
+      <c r="I158" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -7387,31 +7370,31 @@
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>Labor Costs</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>Specialist Labor</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>Plumber payment</t>
+          <t>Water payment</t>
         </is>
       </c>
       <c r="E159" s="4" t="n">
-        <v>10000</v>
+        <v>180</v>
       </c>
       <c r="F159" s="4" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="G159" s="4" t="n">
-        <v>10096</v>
+        <v>185</v>
       </c>
       <c r="H159" s="4" t="inlineStr">
         <is>
-          <t>Plumber</t>
+          <t>Water Utility</t>
         </is>
       </c>
       <c r="I159" s="4" t="inlineStr">
@@ -7428,31 +7411,31 @@
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Transport &amp; Logistics</t>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Logistics</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
         <is>
-          <t>Water payment</t>
+          <t>Deo logistics</t>
         </is>
       </c>
       <c r="E160" s="4" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="F160" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G160" s="4" t="n">
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="H160" s="4" t="inlineStr">
         <is>
-          <t>Water Utility</t>
+          <t>Logistics Provider</t>
         </is>
       </c>
       <c r="I160" s="4" t="inlineStr">
@@ -7469,31 +7452,31 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>Transport &amp; Logistics</t>
+          <t>Hardware Items</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>Logistics</t>
+          <t>Plumbing</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>Deo logistics</t>
+          <t>4pcs waste pipe 4" @ 450</t>
         </is>
       </c>
       <c r="E161" s="4" t="n">
-        <v>550</v>
+        <v>1800</v>
       </c>
       <c r="F161" s="4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G161" s="4" t="n">
-        <v>560</v>
+        <v>1825</v>
       </c>
       <c r="H161" s="4" t="inlineStr">
         <is>
-          <t>Logistics Provider</t>
+          <t>Plumbing Supplier</t>
         </is>
       </c>
       <c r="I161" s="4" t="inlineStr">
@@ -7520,17 +7503,17 @@
       </c>
       <c r="D162" s="4" t="inlineStr">
         <is>
-          <t>4pcs waste pipe 4" @ 450</t>
+          <t>4pcs inspection tee 4" @ 250</t>
         </is>
       </c>
       <c r="E162" s="4" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="F162" s="4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G162" s="4" t="n">
-        <v>1825</v>
+        <v>1010</v>
       </c>
       <c r="H162" s="4" t="inlineStr">
         <is>
@@ -7561,17 +7544,17 @@
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>4pcs inspection tee 4" @ 250</t>
+          <t>2pcs inspection bend 4" @ 380</t>
         </is>
       </c>
       <c r="E163" s="4" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="F163" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G163" s="4" t="n">
-        <v>1010</v>
+        <v>770</v>
       </c>
       <c r="H163" s="4" t="inlineStr">
         <is>
@@ -7602,17 +7585,17 @@
       </c>
       <c r="D164" s="4" t="inlineStr">
         <is>
-          <t>2pcs inspection bend 4" @ 380</t>
+          <t>2pcs waste bend 4" @ 250</t>
         </is>
       </c>
       <c r="E164" s="4" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="F164" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G164" s="4" t="n">
-        <v>770</v>
+        <v>505</v>
       </c>
       <c r="H164" s="4" t="inlineStr">
         <is>
@@ -7643,17 +7626,17 @@
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>2pcs waste bend 4" @ 250</t>
+          <t>1pc waste rest bend 4" x 2"</t>
         </is>
       </c>
       <c r="E165" s="4" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="F165" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G165" s="4" t="n">
-        <v>505</v>
+        <v>225</v>
       </c>
       <c r="H165" s="4" t="inlineStr">
         <is>
@@ -7684,17 +7667,17 @@
       </c>
       <c r="D166" s="4" t="inlineStr">
         <is>
-          <t>1pc waste rest bend 4" x 2"</t>
+          <t>1pc waste coupling 4"</t>
         </is>
       </c>
       <c r="E166" s="4" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="F166" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G166" s="4" t="n">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="H166" s="4" t="inlineStr">
         <is>
@@ -7725,7 +7708,7 @@
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>1pc waste coupling 4"</t>
+          <t>1pc Y junctions 4"</t>
         </is>
       </c>
       <c r="E167" s="4" t="n">
@@ -7766,17 +7749,17 @@
       </c>
       <c r="D168" s="4" t="inlineStr">
         <is>
-          <t>1pc Y junctions 4"</t>
+          <t>2pcs PPR cap 25mm @ 40</t>
         </is>
       </c>
       <c r="E168" s="4" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F168" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G168" s="4" t="n">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="H168" s="4" t="inlineStr">
         <is>
@@ -7807,17 +7790,17 @@
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>2pcs PPR cap 25mm @ 40</t>
+          <t>2pcs PPR caps 1" @ 80</t>
         </is>
       </c>
       <c r="E169" s="4" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F169" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G169" s="4" t="n">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="H169" s="4" t="inlineStr">
         <is>
@@ -7848,17 +7831,17 @@
       </c>
       <c r="D170" s="4" t="inlineStr">
         <is>
-          <t>2pcs PPR caps 1" @ 80</t>
+          <t>3pcs sink trap @ 100</t>
         </is>
       </c>
       <c r="E170" s="4" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="F170" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G170" s="4" t="n">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="H170" s="4" t="inlineStr">
         <is>
@@ -7889,17 +7872,17 @@
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>3pcs sink trap @ 100</t>
+          <t>6pcs male adapters 1" @ 100</t>
         </is>
       </c>
       <c r="E171" s="4" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F171" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G171" s="4" t="n">
-        <v>305</v>
+        <v>610</v>
       </c>
       <c r="H171" s="4" t="inlineStr">
         <is>
@@ -7930,7 +7913,7 @@
       </c>
       <c r="D172" s="4" t="inlineStr">
         <is>
-          <t>6pcs male adapters 1" @ 100</t>
+          <t>6pcs female adapters 1" @ 100</t>
         </is>
       </c>
       <c r="E172" s="4" t="n">
@@ -7971,17 +7954,17 @@
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>6pcs female adapters 1" @ 100</t>
+          <t>250ml tangit glue</t>
         </is>
       </c>
       <c r="E173" s="4" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F173" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G173" s="4" t="n">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="H173" s="4" t="inlineStr">
         <is>
@@ -8012,17 +7995,17 @@
       </c>
       <c r="D174" s="4" t="inlineStr">
         <is>
-          <t>250ml tangit glue</t>
+          <t>1pc valve 3/4" brass</t>
         </is>
       </c>
       <c r="E174" s="4" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="F174" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G174" s="4" t="n">
-        <v>560</v>
+        <v>1010</v>
       </c>
       <c r="H174" s="4" t="inlineStr">
         <is>
@@ -8053,17 +8036,17 @@
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>1pc valve 3/4" brass</t>
+          <t>5m lay flat 1/2" @ 80</t>
         </is>
       </c>
       <c r="E175" s="4" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F175" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G175" s="4" t="n">
-        <v>1010</v>
+        <v>405</v>
       </c>
       <c r="H175" s="4" t="inlineStr">
         <is>
@@ -8079,36 +8062,36 @@
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>21/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Hardware Items</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>Plumbing</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="D176" s="4" t="inlineStr">
         <is>
-          <t>5m lay flat 1/2" @ 80</t>
+          <t>Water 3000 ltrs @ 1250</t>
         </is>
       </c>
       <c r="E176" s="4" t="n">
-        <v>400</v>
+        <v>3750</v>
       </c>
       <c r="F176" s="4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G176" s="4" t="n">
-        <v>405</v>
+        <v>3790</v>
       </c>
       <c r="H176" s="4" t="inlineStr">
         <is>
-          <t>Plumbing Supplier</t>
+          <t>Water Utility</t>
         </is>
       </c>
       <c r="I176" s="4" t="inlineStr">
@@ -8125,31 +8108,31 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Building Materials</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>Water 3000 ltrs @ 1250</t>
+          <t>220ft Faceboard 8X1 cypress @ 95</t>
         </is>
       </c>
       <c r="E177" s="4" t="n">
-        <v>3750</v>
+        <v>20900</v>
       </c>
       <c r="F177" s="4" t="n">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="G177" s="4" t="n">
-        <v>3790</v>
+        <v>21255</v>
       </c>
       <c r="H177" s="4" t="inlineStr">
         <is>
-          <t>Water Utility</t>
+          <t>Timber Supplier</t>
         </is>
       </c>
       <c r="I177" s="4" t="inlineStr">
@@ -8166,31 +8149,31 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>Building Materials</t>
+          <t>Hardware Items</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Fasteners</t>
         </is>
       </c>
       <c r="D178" s="4" t="inlineStr">
         <is>
-          <t>220ft Faceboard 8X1 cypress @ 95</t>
+          <t>3kg Roof Nails @ 300</t>
         </is>
       </c>
       <c r="E178" s="4" t="n">
-        <v>20900</v>
+        <v>900</v>
       </c>
       <c r="F178" s="4" t="n">
-        <v>355</v>
+        <v>10</v>
       </c>
       <c r="G178" s="4" t="n">
-        <v>21255</v>
+        <v>910</v>
       </c>
       <c r="H178" s="4" t="inlineStr">
         <is>
-          <t>Timber Supplier</t>
+          <t>Hardware Store</t>
         </is>
       </c>
       <c r="I178" s="4" t="inlineStr">
@@ -8212,22 +8195,22 @@
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>Fasteners</t>
+          <t>Roofing</t>
         </is>
       </c>
       <c r="D179" s="4" t="inlineStr">
         <is>
-          <t>3kg Roof Nails @ 300</t>
+          <t>2pkts rubbers cups @ 100</t>
         </is>
       </c>
       <c r="E179" s="4" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="F179" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G179" s="4" t="n">
-        <v>910</v>
+        <v>205</v>
       </c>
       <c r="H179" s="4" t="inlineStr">
         <is>
@@ -8248,31 +8231,31 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>Hardware Items</t>
+          <t>Building Materials</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>Roofing</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="D180" s="4" t="inlineStr">
         <is>
-          <t>2pkts rubbers cups @ 100</t>
+          <t>30ft 3X2 bluegum @ 35</t>
         </is>
       </c>
       <c r="E180" s="4" t="n">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="F180" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G180" s="4" t="n">
-        <v>205</v>
+        <v>1065</v>
       </c>
       <c r="H180" s="4" t="inlineStr">
         <is>
-          <t>Hardware Store</t>
+          <t>Timber Supplier</t>
         </is>
       </c>
       <c r="I180" s="4" t="inlineStr">
@@ -8299,17 +8282,17 @@
       </c>
       <c r="D181" s="4" t="inlineStr">
         <is>
-          <t>30ft 3X2 bluegum @ 35</t>
+          <t>50ft 6X1 bluegum @ 40</t>
         </is>
       </c>
       <c r="E181" s="4" t="n">
-        <v>1050</v>
+        <v>2000</v>
       </c>
       <c r="F181" s="4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G181" s="4" t="n">
-        <v>1065</v>
+        <v>2025</v>
       </c>
       <c r="H181" s="4" t="inlineStr">
         <is>
@@ -8335,26 +8318,26 @@
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Roofing</t>
         </is>
       </c>
       <c r="D182" s="4" t="inlineStr">
         <is>
-          <t>50ft 6X1 bluegum @ 40</t>
+          <t>15pcs 3mtr Iron sheets @ 1650</t>
         </is>
       </c>
       <c r="E182" s="4" t="n">
-        <v>2000</v>
+        <v>24750</v>
       </c>
       <c r="F182" s="4" t="n">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="G182" s="4" t="n">
-        <v>2025</v>
+        <v>25105</v>
       </c>
       <c r="H182" s="4" t="inlineStr">
         <is>
-          <t>Timber Supplier</t>
+          <t>Roofing Supplier</t>
         </is>
       </c>
       <c r="I182" s="4" t="inlineStr">
@@ -8381,17 +8364,17 @@
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>15pcs 3mtr Iron sheets @ 1650</t>
+          <t>6pcs ridges maasai red @ 650</t>
         </is>
       </c>
       <c r="E183" s="4" t="n">
-        <v>24750</v>
+        <v>3900</v>
       </c>
       <c r="F183" s="4" t="n">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="G183" s="4" t="n">
-        <v>25105</v>
+        <v>3940</v>
       </c>
       <c r="H183" s="4" t="inlineStr">
         <is>
@@ -8412,31 +8395,31 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>Building Materials</t>
+          <t>Hardware Items</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
         <is>
-          <t>Roofing</t>
+          <t>Plumbing</t>
         </is>
       </c>
       <c r="D184" s="4" t="inlineStr">
         <is>
-          <t>6pcs ridges maasai red @ 650</t>
+          <t>1pc PVC pipe 4" @ 1500</t>
         </is>
       </c>
       <c r="E184" s="4" t="n">
-        <v>3900</v>
+        <v>1500</v>
       </c>
       <c r="F184" s="4" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G184" s="4" t="n">
-        <v>3940</v>
+        <v>1515</v>
       </c>
       <c r="H184" s="4" t="inlineStr">
         <is>
-          <t>Roofing Supplier</t>
+          <t>Plumbing Supplier</t>
         </is>
       </c>
       <c r="I184" s="4" t="inlineStr">
@@ -8458,26 +8441,26 @@
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t>Plumbing</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>1pc PVC pipe 4" @ 1500</t>
+          <t>5pcs Dio @ 950</t>
         </is>
       </c>
       <c r="E185" s="4" t="n">
-        <v>1500</v>
+        <v>4750</v>
       </c>
       <c r="F185" s="4" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G185" s="4" t="n">
-        <v>1515</v>
+        <v>4790</v>
       </c>
       <c r="H185" s="4" t="inlineStr">
         <is>
-          <t>Plumbing Supplier</t>
+          <t>Electrical Supplier</t>
         </is>
       </c>
       <c r="I185" s="4" t="inlineStr">
@@ -8494,31 +8477,31 @@
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>Hardware Items</t>
+          <t>Building Materials</t>
         </is>
       </c>
       <c r="C186" s="4" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="D186" s="4" t="inlineStr">
         <is>
-          <t>5pcs Dio @ 950</t>
+          <t>40ft 6x9 @ 45</t>
         </is>
       </c>
       <c r="E186" s="4" t="n">
-        <v>4750</v>
+        <v>1800</v>
       </c>
       <c r="F186" s="4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G186" s="4" t="n">
-        <v>4790</v>
+        <v>1825</v>
       </c>
       <c r="H186" s="4" t="inlineStr">
         <is>
-          <t>Electrical Supplier</t>
+          <t>Timber Supplier</t>
         </is>
       </c>
       <c r="I186" s="4" t="inlineStr">
@@ -8535,31 +8518,31 @@
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>Building Materials</t>
+          <t>Metal &amp; Steel</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Structure</t>
         </is>
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>40ft 6x9 @ 45</t>
+          <t>3pcs squaretube 1 1/2x1 @ 800</t>
         </is>
       </c>
       <c r="E187" s="4" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="F187" s="4" t="n">
         <v>25</v>
       </c>
       <c r="G187" s="4" t="n">
-        <v>1825</v>
+        <v>2425</v>
       </c>
       <c r="H187" s="4" t="inlineStr">
         <is>
-          <t>Timber Supplier</t>
+          <t>Metal Supplier</t>
         </is>
       </c>
       <c r="I187" s="4" t="inlineStr">
@@ -8576,31 +8559,31 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>Metal &amp; Steel</t>
+          <t>Hardware Items</t>
         </is>
       </c>
       <c r="C188" s="4" t="inlineStr">
         <is>
-          <t>Structure</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="D188" s="4" t="inlineStr">
         <is>
-          <t>3pcs squaretube 1 1/2x1 @ 800</t>
+          <t>2 pairs flap hinges @ 150</t>
         </is>
       </c>
       <c r="E188" s="4" t="n">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="F188" s="4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G188" s="4" t="n">
-        <v>2425</v>
+        <v>305</v>
       </c>
       <c r="H188" s="4" t="inlineStr">
         <is>
-          <t>Metal Supplier</t>
+          <t>Hardware Store</t>
         </is>
       </c>
       <c r="I188" s="4" t="inlineStr">
@@ -8617,31 +8600,31 @@
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>Hardware Items</t>
+          <t>Labor Costs</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Specialist Labor</t>
         </is>
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>2 pairs flap hinges @ 150</t>
+          <t>Welder payment</t>
         </is>
       </c>
       <c r="E189" s="4" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="F189" s="4" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="G189" s="4" t="n">
-        <v>305</v>
+        <v>10096</v>
       </c>
       <c r="H189" s="4" t="inlineStr">
         <is>
-          <t>Hardware Store</t>
+          <t>Welder</t>
         </is>
       </c>
       <c r="I189" s="4" t="inlineStr">
@@ -8663,26 +8646,26 @@
       </c>
       <c r="C190" s="4" t="inlineStr">
         <is>
-          <t>Specialist Labor</t>
+          <t>Daily Labor</t>
         </is>
       </c>
       <c r="D190" s="4" t="inlineStr">
         <is>
-          <t>Welder payment</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="E190" s="4" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="F190" s="4" t="n">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="G190" s="4" t="n">
-        <v>10096</v>
+        <v>1515</v>
       </c>
       <c r="H190" s="4" t="inlineStr">
         <is>
-          <t>Welder</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="I190" s="4" t="inlineStr">
@@ -8692,289 +8675,289 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="5" t="inlineStr">
+      <c r="A191" s="4" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="B191" s="5" t="inlineStr">
+      <c r="B191" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C191" s="5" t="inlineStr">
+      <c r="C191" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D191" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E191" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F191" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H191" s="5" t="inlineStr">
+      <c r="D191" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F191" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G191" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H191" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I191" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I191" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="5" t="inlineStr">
+      <c r="A192" s="4" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="B192" s="5" t="inlineStr">
+      <c r="B192" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C192" s="5" t="inlineStr">
+      <c r="C192" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D192" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E192" s="5" t="n">
+      <c r="D192" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2</t>
+        </is>
+      </c>
+      <c r="E192" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="F192" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H192" s="5" t="inlineStr">
+      <c r="F192" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G192" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H192" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I192" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I192" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="inlineStr">
+      <c r="A193" s="4" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="B193" s="5" t="inlineStr">
+      <c r="B193" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C193" s="5" t="inlineStr">
+      <c r="C193" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D193" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E193" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F193" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" s="5" t="inlineStr">
+      <c r="D193" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3</t>
+        </is>
+      </c>
+      <c r="E193" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F193" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G193" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H193" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I193" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I193" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="5" t="inlineStr">
+      <c r="A194" s="4" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="B194" s="5" t="inlineStr">
+      <c r="B194" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C194" s="5" t="inlineStr">
+      <c r="C194" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D194" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 3 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E194" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F194" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H194" s="5" t="inlineStr">
+      <c r="D194" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1</t>
+        </is>
+      </c>
+      <c r="E194" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F194" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G194" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H194" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I194" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I194" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="inlineStr">
+      <c r="A195" s="4" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="B195" s="5" t="inlineStr">
+      <c r="B195" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C195" s="5" t="inlineStr">
+      <c r="C195" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D195" s="5" t="inlineStr">
-        <is>
-          <t>Helper 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E195" s="5" t="n">
+      <c r="D195" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2</t>
+        </is>
+      </c>
+      <c r="E195" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="F195" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H195" s="5" t="inlineStr">
+      <c r="F195" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G195" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H195" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I195" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I195" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="5" t="inlineStr">
+      <c r="A196" s="4" t="inlineStr">
         <is>
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="B196" s="5" t="inlineStr">
+      <c r="B196" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C196" s="5" t="inlineStr">
+      <c r="C196" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D196" s="5" t="inlineStr">
-        <is>
-          <t>Helper 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E196" s="5" t="n">
+      <c r="D196" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3</t>
+        </is>
+      </c>
+      <c r="E196" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="F196" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" s="5" t="inlineStr">
+      <c r="F196" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G196" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H196" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I196" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I196" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="5" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="B197" s="5" t="inlineStr">
-        <is>
-          <t>Labor Costs</t>
-        </is>
-      </c>
-      <c r="C197" s="5" t="inlineStr">
-        <is>
-          <t>Daily Labor</t>
-        </is>
-      </c>
-      <c r="D197" s="5" t="inlineStr">
-        <is>
-          <t>Helper 3 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E197" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="F197" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" s="5" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="I197" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="A197" s="4" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B197" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C197" s="4" t="inlineStr">
+        <is>
+          <t>Sand</t>
+        </is>
+      </c>
+      <c r="D197" s="4" t="inlineStr">
+        <is>
+          <t>Sand</t>
+        </is>
+      </c>
+      <c r="E197" s="4" t="n">
+        <v>4550</v>
+      </c>
+      <c r="F197" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G197" s="4" t="n">
+        <v>4590</v>
+      </c>
+      <c r="H197" s="4" t="inlineStr">
+        <is>
+          <t>Sand Supplier</t>
+        </is>
+      </c>
+      <c r="I197" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -8986,31 +8969,31 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>Building Materials</t>
+          <t>Labor Costs</t>
         </is>
       </c>
       <c r="C198" s="4" t="inlineStr">
         <is>
-          <t>Sand</t>
+          <t>Daily Labor</t>
         </is>
       </c>
       <c r="D198" s="4" t="inlineStr">
         <is>
-          <t>Sand</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="E198" s="4" t="n">
-        <v>4550</v>
+        <v>1500</v>
       </c>
       <c r="F198" s="4" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G198" s="4" t="n">
-        <v>4590</v>
+        <v>1515</v>
       </c>
       <c r="H198" s="4" t="inlineStr">
         <is>
-          <t>Sand Supplier</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="I198" s="4" t="inlineStr">
@@ -9020,289 +9003,289 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="5" t="inlineStr">
+      <c r="A199" s="4" t="inlineStr">
         <is>
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="B199" s="5" t="inlineStr">
+      <c r="B199" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C199" s="5" t="inlineStr">
+      <c r="C199" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D199" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E199" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F199" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" s="5" t="inlineStr">
+      <c r="D199" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E199" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F199" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G199" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H199" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I199" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I199" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="5" t="inlineStr">
+      <c r="A200" s="4" t="inlineStr">
         <is>
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="B200" s="5" t="inlineStr">
+      <c r="B200" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C200" s="5" t="inlineStr">
+      <c r="C200" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D200" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E200" s="5" t="n">
+      <c r="D200" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2</t>
+        </is>
+      </c>
+      <c r="E200" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="F200" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" s="5" t="inlineStr">
+      <c r="F200" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G200" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H200" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I200" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I200" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="5" t="inlineStr">
+      <c r="A201" s="4" t="inlineStr">
         <is>
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="B201" s="5" t="inlineStr">
+      <c r="B201" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C201" s="5" t="inlineStr">
+      <c r="C201" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D201" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E201" s="5" t="n">
+      <c r="D201" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3</t>
+        </is>
+      </c>
+      <c r="E201" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="F201" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" s="5" t="inlineStr">
+      <c r="F201" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G201" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H201" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I201" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I201" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="5" t="inlineStr">
+      <c r="A202" s="4" t="inlineStr">
         <is>
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="B202" s="5" t="inlineStr">
+      <c r="B202" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C202" s="5" t="inlineStr">
+      <c r="C202" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D202" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 3 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E202" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F202" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" s="5" t="inlineStr">
+      <c r="D202" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1</t>
+        </is>
+      </c>
+      <c r="E202" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F202" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G202" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H202" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I202" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I202" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="5" t="inlineStr">
+      <c r="A203" s="4" t="inlineStr">
         <is>
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="B203" s="5" t="inlineStr">
+      <c r="B203" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C203" s="5" t="inlineStr">
+      <c r="C203" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D203" s="5" t="inlineStr">
-        <is>
-          <t>Helper 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E203" s="5" t="n">
+      <c r="D203" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2</t>
+        </is>
+      </c>
+      <c r="E203" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="F203" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" s="5" t="inlineStr">
+      <c r="F203" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G203" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H203" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I203" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I203" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="inlineStr">
+      <c r="A204" s="4" t="inlineStr">
         <is>
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="B204" s="5" t="inlineStr">
+      <c r="B204" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C204" s="5" t="inlineStr">
+      <c r="C204" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D204" s="5" t="inlineStr">
-        <is>
-          <t>Helper 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E204" s="5" t="n">
+      <c r="D204" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3</t>
+        </is>
+      </c>
+      <c r="E204" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="F204" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H204" s="5" t="inlineStr">
+      <c r="F204" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G204" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H204" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I204" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I204" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="5" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="B205" s="5" t="inlineStr">
-        <is>
-          <t>Labor Costs</t>
-        </is>
-      </c>
-      <c r="C205" s="5" t="inlineStr">
-        <is>
-          <t>Daily Labor</t>
-        </is>
-      </c>
-      <c r="D205" s="5" t="inlineStr">
-        <is>
-          <t>Helper 3 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E205" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="F205" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" s="5" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="I205" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="A205" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B205" s="4" t="inlineStr">
+        <is>
+          <t>Utilities &amp; Services</t>
+        </is>
+      </c>
+      <c r="C205" s="4" t="inlineStr">
+        <is>
+          <t>Water Connection</t>
+        </is>
+      </c>
+      <c r="D205" s="4" t="inlineStr">
+        <is>
+          <t>Water connection</t>
+        </is>
+      </c>
+      <c r="E205" s="4" t="n">
+        <v>5100</v>
+      </c>
+      <c r="F205" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G205" s="4" t="n">
+        <v>5175</v>
+      </c>
+      <c r="H205" s="4" t="inlineStr">
+        <is>
+          <t>Water Company</t>
+        </is>
+      </c>
+      <c r="I205" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -9314,31 +9297,31 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>Utilities &amp; Services</t>
+          <t>Hardware Items</t>
         </is>
       </c>
       <c r="C206" s="4" t="inlineStr">
         <is>
-          <t>Water Connection</t>
+          <t>Tools &amp; Supplies</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
         <is>
-          <t>Water connection</t>
+          <t>Rope</t>
         </is>
       </c>
       <c r="E206" s="4" t="n">
-        <v>5100</v>
+        <v>750</v>
       </c>
       <c r="F206" s="4" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G206" s="4" t="n">
-        <v>5175</v>
+        <v>760</v>
       </c>
       <c r="H206" s="4" t="inlineStr">
         <is>
-          <t>Water Company</t>
+          <t>Hardware Store</t>
         </is>
       </c>
       <c r="I206" s="4" t="inlineStr">
@@ -9360,22 +9343,22 @@
       </c>
       <c r="C207" s="4" t="inlineStr">
         <is>
-          <t>Tools &amp; Supplies</t>
+          <t>Roofing Materials</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>Rope</t>
+          <t>2kg roofing nails @ 300 each</t>
         </is>
       </c>
       <c r="E207" s="4" t="n">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="F207" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G207" s="4" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="H207" s="4" t="inlineStr">
         <is>
@@ -9406,17 +9389,17 @@
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>2kg roofing nails @ 300 each</t>
+          <t>2 packets roofing rubbers @ 100 each</t>
         </is>
       </c>
       <c r="E208" s="4" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F208" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G208" s="4" t="n">
-        <v>610</v>
+        <v>205</v>
       </c>
       <c r="H208" s="4" t="inlineStr">
         <is>
@@ -9437,364 +9420,1635 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C209" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D209" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E209" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F209" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G209" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H209" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I209" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B210" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C210" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D210" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2</t>
+        </is>
+      </c>
+      <c r="E210" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F210" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G210" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H210" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I210" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B211" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C211" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D211" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3</t>
+        </is>
+      </c>
+      <c r="E211" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F211" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G211" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H211" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I211" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B212" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C212" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D212" s="4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="E212" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F212" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G212" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H212" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I212" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B213" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C213" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D213" s="4" t="inlineStr">
+        <is>
+          <t>Helper 1</t>
+        </is>
+      </c>
+      <c r="E213" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F213" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G213" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H213" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I213" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B214" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C214" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D214" s="4" t="inlineStr">
+        <is>
+          <t>Helper 2</t>
+        </is>
+      </c>
+      <c r="E214" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F214" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G214" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H214" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I214" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B215" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C215" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D215" s="4" t="inlineStr">
+        <is>
+          <t>Helper 3</t>
+        </is>
+      </c>
+      <c r="E215" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F215" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G215" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H215" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I215" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B216" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C216" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D216" s="4" t="inlineStr">
+        <is>
+          <t>Helper 4</t>
+        </is>
+      </c>
+      <c r="E216" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F216" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G216" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H216" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I216" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B217" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C217" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D217" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 4</t>
+        </is>
+      </c>
+      <c r="E217" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F217" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G217" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H217" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I217" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B218" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C218" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D218" s="4" t="inlineStr">
+        <is>
+          <t>Helper 5</t>
+        </is>
+      </c>
+      <c r="E218" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F218" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G218" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H218" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I218" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B219" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C219" s="4" t="inlineStr">
+        <is>
+          <t>Specialist Labor</t>
+        </is>
+      </c>
+      <c r="D219" s="4" t="inlineStr">
+        <is>
+          <t>Water connection labor</t>
+        </is>
+      </c>
+      <c r="E219" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F219" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G219" s="4" t="n">
+        <v>8096</v>
+      </c>
+      <c r="H219" s="4" t="inlineStr">
+        <is>
+          <t>Labor Contractor</t>
+        </is>
+      </c>
+      <c r="I219" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B220" s="4" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C220" s="4" t="inlineStr">
+        <is>
+          <t>Worker Transport</t>
+        </is>
+      </c>
+      <c r="D220" s="4" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="E220" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F220" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G220" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H220" s="4" t="inlineStr">
+        <is>
+          <t>Transport Service</t>
+        </is>
+      </c>
+      <c r="I220" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B221" s="4" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C221" s="4" t="inlineStr">
+        <is>
+          <t>Worker Transport</t>
+        </is>
+      </c>
+      <c r="D221" s="4" t="inlineStr">
+        <is>
+          <t>Fundi transport</t>
+        </is>
+      </c>
+      <c r="E221" s="4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F221" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G221" s="4" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H221" s="4" t="inlineStr">
+        <is>
+          <t>Transport Service</t>
+        </is>
+      </c>
+      <c r="I221" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B222" s="4" t="inlineStr">
+        <is>
+          <t>Workers Accommodation</t>
+        </is>
+      </c>
+      <c r="C222" s="4" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D222" s="4" t="inlineStr">
+        <is>
+          <t>Fundi extra meal</t>
+        </is>
+      </c>
+      <c r="E222" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F222" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G222" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H222" s="4" t="inlineStr">
+        <is>
+          <t>Food Vendor</t>
+        </is>
+      </c>
+      <c r="I222" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B223" s="4" t="inlineStr">
+        <is>
           <t>Hardware Items</t>
         </is>
       </c>
-      <c r="C209" s="4" t="inlineStr">
-        <is>
-          <t>Roofing Materials</t>
-        </is>
-      </c>
-      <c r="D209" s="4" t="inlineStr">
-        <is>
-          <t>2 packets roofing rubbers @ 100 each</t>
-        </is>
-      </c>
-      <c r="E209" s="4" t="n">
+      <c r="C223" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D223" s="4" t="inlineStr">
+        <is>
+          <t>2 rolls PPR pipe 3/4 @ 5500 each</t>
+        </is>
+      </c>
+      <c r="E223" s="4" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F223" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="G223" s="4" t="n">
+        <v>11156</v>
+      </c>
+      <c r="H223" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I223" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B224" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C224" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D224" s="4" t="inlineStr">
+        <is>
+          <t>1 pc tap @ 600</t>
+        </is>
+      </c>
+      <c r="E224" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="F224" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G224" s="4" t="n">
+        <v>610</v>
+      </c>
+      <c r="H224" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I224" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B225" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C225" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D225" s="4" t="inlineStr">
+        <is>
+          <t>2 pcs G.I Tee 1/2 @ 50 each</t>
+        </is>
+      </c>
+      <c r="E225" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F225" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="H225" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I225" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B226" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C226" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D226" s="4" t="inlineStr">
+        <is>
+          <t>2 pcs G.I socket 1/2 @ 30 each</t>
+        </is>
+      </c>
+      <c r="E226" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F226" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="H226" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I226" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B227" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C227" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D227" s="4" t="inlineStr">
+        <is>
+          <t>2 pcs G.I bend 1/2 @ 100 each</t>
+        </is>
+      </c>
+      <c r="E227" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="F209" s="4" t="n">
+      <c r="F227" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G209" s="4" t="n">
+      <c r="G227" s="4" t="n">
         <v>205</v>
       </c>
-      <c r="H209" s="4" t="inlineStr">
+      <c r="H227" s="4" t="inlineStr">
         <is>
           <t>Hardware Store</t>
         </is>
       </c>
-      <c r="I209" s="4" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B210" s="5" t="inlineStr">
+      <c r="I227" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B228" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C228" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D228" s="4" t="inlineStr">
+        <is>
+          <t>4 pcs G.I elbow @ 30 each</t>
+        </is>
+      </c>
+      <c r="E228" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F228" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G228" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="H228" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I228" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B229" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C229" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D229" s="4" t="inlineStr">
+        <is>
+          <t>4 pcs G.I nipple 1/2 @ 30 each</t>
+        </is>
+      </c>
+      <c r="E229" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F229" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G229" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="H229" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I229" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B230" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C230" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D230" s="4" t="inlineStr">
+        <is>
+          <t>2 pcs threadtape large @ 100 each</t>
+        </is>
+      </c>
+      <c r="E230" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F230" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G230" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="H230" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I230" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B231" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C231" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D231" s="4" t="inlineStr">
+        <is>
+          <t>3 pcs G.I union 1/2 @ 100 each</t>
+        </is>
+      </c>
+      <c r="E231" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="F231" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G231" s="4" t="n">
+        <v>305</v>
+      </c>
+      <c r="H231" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I231" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B232" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C232" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D232" s="4" t="inlineStr">
+        <is>
+          <t>20 mtrs PPR pipe 1/2 @ 50 per meter</t>
+        </is>
+      </c>
+      <c r="E232" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F232" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G232" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H232" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I232" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B233" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C233" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D233" s="4" t="inlineStr">
+        <is>
+          <t>2 pcs reducer 3/4 x 1/2 @ 80 each</t>
+        </is>
+      </c>
+      <c r="E233" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="F233" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G233" s="4" t="n">
+        <v>165</v>
+      </c>
+      <c r="H233" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I233" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B234" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C234" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D234" s="4" t="inlineStr">
+        <is>
+          <t>1 pc gate valve 3/4 @ 850</t>
+        </is>
+      </c>
+      <c r="E234" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="F234" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G234" s="4" t="n">
+        <v>860</v>
+      </c>
+      <c r="H234" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I234" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B235" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C235" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D235" s="4" t="inlineStr">
+        <is>
+          <t>1 pc G.I tee 3/4 @ 40</t>
+        </is>
+      </c>
+      <c r="E235" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F235" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H235" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I235" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B236" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C236" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D236" s="4" t="inlineStr">
+        <is>
+          <t>2 pcs union 3/4 @ 130 each</t>
+        </is>
+      </c>
+      <c r="E236" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="F236" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G236" s="4" t="n">
+        <v>265</v>
+      </c>
+      <c r="H236" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I236" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B237" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C237" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D237" s="4" t="inlineStr">
+        <is>
+          <t>1 pc socket 1/2 @ 30</t>
+        </is>
+      </c>
+      <c r="E237" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F237" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H237" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I237" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B238" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C238" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D238" s="4" t="inlineStr">
+        <is>
+          <t>1 pc stop cock @ 1200</t>
+        </is>
+      </c>
+      <c r="E238" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F238" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G238" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H238" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I238" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B239" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C239" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing Supplies</t>
+        </is>
+      </c>
+      <c r="D239" s="4" t="inlineStr">
+        <is>
+          <t>2 pcs gate valve 1/2 @ 650 each</t>
+        </is>
+      </c>
+      <c r="E239" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F239" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G239" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H239" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I239" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B240" s="4" t="inlineStr">
+        <is>
+          <t>Miscellaneous</t>
+        </is>
+      </c>
+      <c r="C240" s="4" t="inlineStr">
+        <is>
+          <t>Tips</t>
+        </is>
+      </c>
+      <c r="D240" s="4" t="inlineStr">
+        <is>
+          <t>Tip</t>
+        </is>
+      </c>
+      <c r="E240" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F240" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G240" s="4" t="n">
+        <v>505</v>
+      </c>
+      <c r="H240" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I240" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B241" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C210" s="5" t="inlineStr">
+      <c r="C241" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D210" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E210" s="5" t="n">
+      <c r="D241" s="4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="E241" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F241" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G241" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H241" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I241" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B242" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C242" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D242" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E242" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="F210" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H210" s="5" t="inlineStr">
+      <c r="F242" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G242" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H242" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I210" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B211" s="5" t="inlineStr">
+      <c r="I242" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B243" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C211" s="5" t="inlineStr">
+      <c r="C243" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D211" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E211" s="5" t="n">
+      <c r="D243" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2</t>
+        </is>
+      </c>
+      <c r="E243" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="F211" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" s="5" t="inlineStr">
+      <c r="F243" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G243" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H243" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I211" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B212" s="5" t="inlineStr">
+      <c r="I243" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B244" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C212" s="5" t="inlineStr">
+      <c r="C244" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D212" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 3 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E212" s="5" t="n">
+      <c r="D244" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3</t>
+        </is>
+      </c>
+      <c r="E244" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="F212" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H212" s="5" t="inlineStr">
+      <c r="F244" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G244" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H244" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I212" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B213" s="5" t="inlineStr">
+      <c r="I244" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B245" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C213" s="5" t="inlineStr">
+      <c r="C245" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D213" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E213" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F213" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G213" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H213" s="5" t="inlineStr">
+      <c r="D245" s="4" t="inlineStr">
+        <is>
+          <t>8 fundis @ 1200 each</t>
+        </is>
+      </c>
+      <c r="E245" s="4" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F245" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G245" s="4" t="n">
+        <v>9696</v>
+      </c>
+      <c r="H245" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I213" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B214" s="5" t="inlineStr">
+      <c r="I245" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B246" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C214" s="5" t="inlineStr">
+      <c r="C246" s="4" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D214" s="5" t="inlineStr">
-        <is>
-          <t>Helper 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E214" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="F214" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H214" s="5" t="inlineStr">
+      <c r="D246" s="4" t="inlineStr">
+        <is>
+          <t>11 helpers @ 600 each</t>
+        </is>
+      </c>
+      <c r="E246" s="4" t="n">
+        <v>6600</v>
+      </c>
+      <c r="F246" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G246" s="4" t="n">
+        <v>6675</v>
+      </c>
+      <c r="H246" s="4" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I214" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B215" s="5" t="inlineStr">
+      <c r="I246" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B247" s="4" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C215" s="5" t="inlineStr">
-        <is>
-          <t>Daily Labor</t>
-        </is>
-      </c>
-      <c r="D215" s="5" t="inlineStr">
-        <is>
-          <t>Helper 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E215" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="F215" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G215" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H215" s="5" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="I215" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B216" s="5" t="inlineStr">
-        <is>
-          <t>Labor Costs</t>
-        </is>
-      </c>
-      <c r="C216" s="5" t="inlineStr">
-        <is>
-          <t>Daily Labor</t>
-        </is>
-      </c>
-      <c r="D216" s="5" t="inlineStr">
-        <is>
-          <t>Helper 3 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E216" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="F216" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G216" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H216" s="5" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="I216" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="5" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B217" s="5" t="inlineStr">
-        <is>
-          <t>Labor Costs</t>
-        </is>
-      </c>
-      <c r="C217" s="5" t="inlineStr">
-        <is>
-          <t>Daily Labor</t>
-        </is>
-      </c>
-      <c r="D217" s="5" t="inlineStr">
-        <is>
-          <t>Helper 4 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E217" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="F217" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G217" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H217" s="5" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="I217" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="C247" s="4" t="inlineStr">
+        <is>
+          <t>Labor Payment</t>
+        </is>
+      </c>
+      <c r="D247" s="4" t="inlineStr">
+        <is>
+          <t>Payment of all accumulated unpaid labor</t>
+        </is>
+      </c>
+      <c r="E247" s="4" t="n">
+        <v>52600</v>
+      </c>
+      <c r="F247" s="4" t="n">
+        <v>455</v>
+      </c>
+      <c r="G247" s="4" t="n">
+        <v>53055</v>
+      </c>
+      <c r="H247" s="4" t="inlineStr">
+        <is>
+          <t>Workers</t>
+        </is>
+      </c>
+      <c r="I247" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B248" s="4" t="inlineStr">
+        <is>
+          <t>Miscellaneous</t>
+        </is>
+      </c>
+      <c r="C248" s="4" t="inlineStr">
+        <is>
+          <t>Transaction Fees</t>
+        </is>
+      </c>
+      <c r="D248" s="4" t="inlineStr">
+        <is>
+          <t>M-Pesa processing fees for labor payments</t>
+        </is>
+      </c>
+      <c r="E248" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F248" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G248" s="4" t="n">
+        <v>505</v>
+      </c>
+      <c r="H248" s="4" t="inlineStr">
+        <is>
+          <t>M-Pesa</t>
+        </is>
+      </c>
+      <c r="I248" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -9827,7 +11081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9843,29 +11097,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Fee Structure</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Amount Range</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Fee (KES)</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Transactions</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Total Fees</t>
         </is>
@@ -9897,10 +11151,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7">
@@ -9913,10 +11167,10 @@
         <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8">
@@ -9929,10 +11183,10 @@
         <v>96</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>672</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9">
@@ -9961,10 +11215,10 @@
         <v>455</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>455</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11">
@@ -9977,10 +11231,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>390</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12">
@@ -9993,10 +11247,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" t="n">
-        <v>500</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13">
@@ -10025,10 +11279,10 @@
         <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>468</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15">
@@ -10041,10 +11295,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
@@ -10057,21 +11311,37 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0-49</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Total M-Pesa Fees:</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>KES 7,168</t>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>KES 8,668</t>
         </is>
       </c>
     </row>
@@ -10210,12 +11480,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Total Outstanding:</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>KES 54,400</t>
         </is>
@@ -10235,7 +11505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10278,615 +11548,15 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Jack - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 3 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Helper 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Helper 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Helper 3 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>21/09/2025</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Charles - Construction Labor</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Jack - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 3 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Helper 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Helper 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Helper 3 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Jack - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D21" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 3 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D22" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Helper 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Helper 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>23/09/2025</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Helper 3 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Fundi 3 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Jack - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D29" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Helper 1 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D30" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Helper 2 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Helper 3 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Helper 4 - Daily Labor</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>KES 30,200</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>KES 0</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 749,413</t>
+          <t>KES 798,000</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 250,587</t>
+          <t>KES 202,000</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>74.94%</t>
+          <t>79.8%</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 8,668</t>
+          <t>KES 8,909</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KES 54,400</t>
+          <t>KES 30,000</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 54,400</t>
+          <t>KES 30,000</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 803,813</t>
+          <t>KES 828,000</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>80.38%</t>
+          <t>82.80%</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES 196,187</t>
+          <t>KES 172,000</t>
         </is>
       </c>
     </row>
@@ -659,63 +659,63 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Labor Costs</t>
+          <t>Building Materials</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>200900</v>
+        <v>183580</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>2181</v>
+        <v>2300</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>203081</v>
+        <v>185880</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>20.31%</t>
+          <t>18.59%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Building Materials</t>
+          <t>Metal &amp; Steel</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>183580</v>
+        <v>176310</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>2300</v>
+        <v>2090.5</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>185880</v>
+        <v>178400.5</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>18.59%</t>
+          <t>17.84%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Metal &amp; Steel</t>
+          <t>Labor Costs</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>176310</v>
+        <v>172700</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>2090.5</v>
+        <v>1972.5</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>178400.5</v>
+        <v>174672.5</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>17.84%</t>
+          <t>17.47%</t>
         </is>
       </c>
     </row>
@@ -743,105 +743,105 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Workers Accommodation</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>17760</v>
+        <v>78545.5</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>17950</v>
+        <v>79015.5</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>7.90%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Transport &amp; Logistics</t>
+          <t>Workers Accommodation</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>16550</v>
+        <v>17760</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>16735</v>
+        <v>17950</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>1.67%</t>
+          <t>1.80%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Transport &amp; Logistics</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>8330</v>
+        <v>16550</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>8415</v>
+        <v>16735</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>1.67%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Utilities &amp; Services</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>5100</v>
+        <v>8330</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>5175</v>
+        <v>8415</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.84%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Utilities &amp; Services</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>2000</v>
+        <v>5100</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>2020</v>
+        <v>5175</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>0.52%</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10978,31 +10978,31 @@
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>Labor Costs</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="C247" s="4" t="inlineStr">
         <is>
-          <t>Labor Payment</t>
+          <t>Not used for the project</t>
         </is>
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>Payment of all accumulated unpaid labor</t>
+          <t>Money that has been taken out for personal use.</t>
         </is>
       </c>
       <c r="E247" s="4" t="n">
-        <v>52600</v>
+        <v>77045.5</v>
       </c>
       <c r="F247" s="4" t="n">
         <v>455</v>
       </c>
       <c r="G247" s="4" t="n">
-        <v>53055</v>
+        <v>77500.5</v>
       </c>
       <c r="H247" s="4" t="inlineStr">
         <is>
-          <t>Workers</t>
+          <t>Self</t>
         </is>
       </c>
       <c r="I247" s="4" t="inlineStr">
@@ -11014,39 +11014,80 @@
     <row r="248">
       <c r="A248" s="4" t="inlineStr">
         <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B248" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C248" s="4" t="inlineStr">
+        <is>
+          <t>Specialized Labor</t>
+        </is>
+      </c>
+      <c r="D248" s="4" t="inlineStr">
+        <is>
+          <t>Welder - final balance payment (18000 of 40000 total)</t>
+        </is>
+      </c>
+      <c r="E248" s="4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F248" s="4" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G248" s="4" t="n">
+        <v>18171.5</v>
+      </c>
+      <c r="H248" s="4" t="inlineStr">
+        <is>
+          <t>Welder</t>
+        </is>
+      </c>
+      <c r="I248" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="4" t="inlineStr">
+        <is>
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="B248" s="4" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="C248" s="4" t="inlineStr">
-        <is>
-          <t>Transaction Fees</t>
-        </is>
-      </c>
-      <c r="D248" s="4" t="inlineStr">
-        <is>
-          <t>M-Pesa processing fees for labor payments</t>
-        </is>
-      </c>
-      <c r="E248" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="F248" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G248" s="4" t="n">
-        <v>505</v>
-      </c>
-      <c r="H248" s="4" t="inlineStr">
-        <is>
-          <t>M-Pesa</t>
-        </is>
-      </c>
-      <c r="I248" s="4" t="inlineStr">
+      <c r="B249" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C249" s="4" t="inlineStr">
+        <is>
+          <t>Specialized Labor</t>
+        </is>
+      </c>
+      <c r="D249" s="4" t="inlineStr">
+        <is>
+          <t>Excavation Worker - final balance payment (6400 of 16000 total)</t>
+        </is>
+      </c>
+      <c r="E249" s="4" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F249" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G249" s="4" t="n">
+        <v>6475</v>
+      </c>
+      <c r="H249" s="4" t="inlineStr">
+        <is>
+          <t>Excavation Worker</t>
+        </is>
+      </c>
+      <c r="I249" s="4" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -11167,10 +11208,10 @@
         <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8">
@@ -11199,10 +11240,10 @@
         <v>171.5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>686</v>
+        <v>857.5</v>
       </c>
     </row>
     <row r="10">
@@ -11295,10 +11336,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16">
@@ -11341,7 +11382,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>KES 8,668</t>
+          <t>KES 8,909</t>
         </is>
       </c>
     </row>
@@ -11356,7 +11397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11402,12 +11443,12 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Welder</t>
+          <t>Electrician</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Remaining balance for welding work (18000 of 40000)</t>
+          <t>Remaining balance for electrical work (18000 of 28000)</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
@@ -11415,23 +11456,23 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
+          <t>To be scheduled</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Excavation Worker</t>
+          <t>Plumber</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Remaining balance for septic tank digging (6400 of 16000)</t>
+          <t>Remaining balance for plumbing work (12000 of 27000)</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6400</v>
+        <v>12000</v>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
@@ -11439,55 +11480,15 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Electrician</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Remaining balance for electrical work (18000 of 28000)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18000</v>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>To be scheduled</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Plumber</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Remaining balance for plumbing work (12000 of 27000)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>12000</v>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>To be scheduled</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Total Outstanding:</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>KES 54,400</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>KES 30,000</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,9 +47,17 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00CC0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00E74C3C"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -60,6 +68,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,14 +95,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -503,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 798,000</t>
+          <t>KES 881,000</t>
         </is>
       </c>
     </row>
@@ -515,7 +532,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 202,000</t>
+          <t>KES 119,000</t>
         </is>
       </c>
     </row>
@@ -527,7 +544,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79.8%</t>
+          <t>88.1%</t>
         </is>
       </c>
     </row>
@@ -539,7 +556,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 8,909</t>
+          <t>KES 9,913</t>
         </is>
       </c>
     </row>
@@ -570,7 +587,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 0</t>
+          <t>KES 16,200</t>
         </is>
       </c>
     </row>
@@ -582,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 30,000</t>
+          <t>KES 46,200</t>
         </is>
       </c>
     </row>
@@ -594,7 +611,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 828,000</t>
+          <t>KES 927,200</t>
         </is>
       </c>
     </row>
@@ -606,7 +623,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>82.80%</t>
+          <t>92.72%</t>
         </is>
       </c>
     </row>
@@ -618,7 +635,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES 172,000</t>
+          <t>KES 72,800</t>
         </is>
       </c>
     </row>
@@ -663,59 +680,59 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>183580</v>
+        <v>240370</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>2300</v>
+        <v>3063</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>185880</v>
+        <v>243433</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>18.59%</t>
+          <t>24.34%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Metal &amp; Steel</t>
+          <t>Labor Costs</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>176310</v>
+        <v>192800</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>2090.5</v>
+        <v>2177.5</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>178400.5</v>
+        <v>194977.5</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>17.84%</t>
+          <t>19.50%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Labor Costs</t>
+          <t>Metal &amp; Steel</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>172700</v>
+        <v>176310</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1972.5</v>
+        <v>2090.5</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>174672.5</v>
+        <v>178400.5</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>17.47%</t>
+          <t>17.84%</t>
         </is>
       </c>
     </row>
@@ -726,17 +743,17 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>130215</v>
+        <v>130465</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>1541.5</v>
+        <v>1547.5</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>131756.5</v>
+        <v>132012.5</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>13.18%</t>
+          <t>13.20%</t>
         </is>
       </c>
     </row>
@@ -747,17 +764,17 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>78545.5</v>
+        <v>80901.5</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>470</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>79015.5</v>
+        <v>81371.5</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>7.90%</t>
+          <t>8.14%</t>
         </is>
       </c>
     </row>
@@ -768,17 +785,17 @@
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>17760</v>
+        <v>18760</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>17950</v>
+        <v>18960</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>1.90%</t>
         </is>
       </c>
     </row>
@@ -789,17 +806,17 @@
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>16550</v>
+        <v>16850</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>16735</v>
+        <v>17040</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>1.67%</t>
+          <t>1.70%</t>
         </is>
       </c>
     </row>
@@ -810,17 +827,17 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>8330</v>
+        <v>9530</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>8415</v>
+        <v>9630</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -859,7 +876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10988,17 +11005,17 @@
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>Money that has been taken out for personal use.</t>
+          <t>Money taken for personal use and potential overcharges or unaccounted expenses.</t>
         </is>
       </c>
       <c r="E247" s="4" t="n">
-        <v>77045.5</v>
+        <v>79401.5</v>
       </c>
       <c r="F247" s="4" t="n">
         <v>455</v>
       </c>
       <c r="G247" s="4" t="n">
-        <v>77500.5</v>
+        <v>79856.5</v>
       </c>
       <c r="H247" s="4" t="inlineStr">
         <is>
@@ -11088,6 +11105,1277 @@
         </is>
       </c>
       <c r="I249" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B250" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C250" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D250" s="4" t="inlineStr">
+        <is>
+          <t>3 Fundi @ 1300 each</t>
+        </is>
+      </c>
+      <c r="E250" s="4" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F250" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G250" s="4" t="n">
+        <v>3940</v>
+      </c>
+      <c r="H250" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I250" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B251" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C251" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D251" s="4" t="inlineStr">
+        <is>
+          <t>2 Fundi @ 1200 each</t>
+        </is>
+      </c>
+      <c r="E251" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F251" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G251" s="4" t="n">
+        <v>2425</v>
+      </c>
+      <c r="H251" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I251" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B252" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C252" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D252" s="4" t="inlineStr">
+        <is>
+          <t>5 helpers @ 600 each</t>
+        </is>
+      </c>
+      <c r="E252" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F252" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G252" s="4" t="n">
+        <v>3025</v>
+      </c>
+      <c r="H252" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I252" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B253" s="4" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C253" s="4" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="D253" s="4" t="inlineStr">
+        <is>
+          <t>Transport on boda</t>
+        </is>
+      </c>
+      <c r="E253" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="F253" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G253" s="4" t="n">
+        <v>305</v>
+      </c>
+      <c r="H253" s="4" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="I253" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B254" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C254" s="4" t="inlineStr">
+        <is>
+          <t>Sand</t>
+        </is>
+      </c>
+      <c r="D254" s="4" t="inlineStr">
+        <is>
+          <t>Sand 14 tonnes</t>
+        </is>
+      </c>
+      <c r="E254" s="4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F254" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G254" s="4" t="n">
+        <v>9096</v>
+      </c>
+      <c r="H254" s="4" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I254" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B255" s="4" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C255" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D255" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E255" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F255" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G255" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H255" s="4" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I255" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B256" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C256" s="4" t="inlineStr">
+        <is>
+          <t>Cement</t>
+        </is>
+      </c>
+      <c r="D256" s="4" t="inlineStr">
+        <is>
+          <t>20 bags cement @ 720 each</t>
+        </is>
+      </c>
+      <c r="E256" s="4" t="n">
+        <v>14400</v>
+      </c>
+      <c r="F256" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="G256" s="4" t="n">
+        <v>14556</v>
+      </c>
+      <c r="H256" s="4" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I256" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B257" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C257" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D257" s="4" t="inlineStr">
+        <is>
+          <t>1 pc G.I union 3/4 @ 130</t>
+        </is>
+      </c>
+      <c r="E257" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="F257" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G257" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="H257" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I257" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B258" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C258" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D258" s="4" t="inlineStr">
+        <is>
+          <t>1 pc G.I R/Socket 3/4 x 1/2 @ 80</t>
+        </is>
+      </c>
+      <c r="E258" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F258" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="H258" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I258" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="4" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B259" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C259" s="4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D259" s="4" t="inlineStr">
+        <is>
+          <t>1 pc G.I play 1/2 @ 40</t>
+        </is>
+      </c>
+      <c r="E259" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F259" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H259" s="4" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I259" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="4" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B260" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C260" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D260" s="4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="E260" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F260" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G260" s="4" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H260" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I260" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="4" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B261" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C261" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D261" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1</t>
+        </is>
+      </c>
+      <c r="E261" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F261" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G261" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H261" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I261" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="4" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B262" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C262" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D262" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2</t>
+        </is>
+      </c>
+      <c r="E262" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F262" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G262" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H262" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I262" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="4" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B263" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C263" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D263" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3</t>
+        </is>
+      </c>
+      <c r="E263" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F263" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G263" s="4" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H263" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I263" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="4" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B264" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C264" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D264" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 4</t>
+        </is>
+      </c>
+      <c r="E264" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F264" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G264" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H264" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I264" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="4" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B265" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C265" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D265" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 5</t>
+        </is>
+      </c>
+      <c r="E265" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F265" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G265" s="4" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H265" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I265" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="4" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B266" s="4" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C266" s="4" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D266" s="4" t="inlineStr">
+        <is>
+          <t>5 helpers @ 600 each</t>
+        </is>
+      </c>
+      <c r="E266" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F266" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G266" s="4" t="n">
+        <v>3025</v>
+      </c>
+      <c r="H266" s="4" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I266" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="4" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B267" s="4" t="inlineStr">
+        <is>
+          <t>Workers Accommodation</t>
+        </is>
+      </c>
+      <c r="C267" s="4" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D267" s="4" t="inlineStr">
+        <is>
+          <t>Meat for workers</t>
+        </is>
+      </c>
+      <c r="E267" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F267" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G267" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H267" s="4" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I267" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="5" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B268" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C268" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D268" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E268" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F268" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I268" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="5" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B269" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C269" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D269" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E269" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F269" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I269" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="5" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B270" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C270" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D270" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E270" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F270" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I270" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="5" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B271" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C271" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D271" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E271" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F271" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I271" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="5" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B272" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C272" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D272" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 4 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E272" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F272" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I272" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="5" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B273" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C273" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D273" s="5" t="inlineStr">
+        <is>
+          <t>4 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E273" s="5" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F273" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I273" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="5" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B274" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C274" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D274" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E274" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F274" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I274" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="5" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B275" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C275" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D275" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E275" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F275" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I275" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="5" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B276" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C276" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D276" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E276" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F276" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I276" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="5" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B277" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C277" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D277" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E277" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F277" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I277" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="5" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B278" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C278" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D278" s="5" t="inlineStr">
+        <is>
+          <t>3 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E278" s="5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F278" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I278" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="4" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B279" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C279" s="4" t="inlineStr">
+        <is>
+          <t>Cement</t>
+        </is>
+      </c>
+      <c r="D279" s="4" t="inlineStr">
+        <is>
+          <t>30 bags cement @ 720 each</t>
+        </is>
+      </c>
+      <c r="E279" s="4" t="n">
+        <v>21600</v>
+      </c>
+      <c r="F279" s="4" t="n">
+        <v>355</v>
+      </c>
+      <c r="G279" s="4" t="n">
+        <v>21955</v>
+      </c>
+      <c r="H279" s="4" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I279" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="4" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B280" s="4" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C280" s="4" t="inlineStr">
+        <is>
+          <t>Stones</t>
+        </is>
+      </c>
+      <c r="D280" s="4" t="inlineStr">
+        <is>
+          <t>262ft 6X9 stones @ 42 sh per ft</t>
+        </is>
+      </c>
+      <c r="E280" s="4" t="n">
+        <v>11790</v>
+      </c>
+      <c r="F280" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="G280" s="4" t="n">
+        <v>11946</v>
+      </c>
+      <c r="H280" s="4" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I280" s="4" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -11138,29 +12426,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Fee Structure</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Amount Range</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Fee (KES)</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Transactions</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Total Fees</t>
         </is>
@@ -11176,10 +12464,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6">
@@ -11192,10 +12480,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7">
@@ -11224,10 +12512,10 @@
         <v>96</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>864</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9">
@@ -11272,10 +12560,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>735</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12">
@@ -11288,10 +12576,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>690</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13">
@@ -11304,10 +12592,10 @@
         <v>355</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1775</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="14">
@@ -11320,10 +12608,10 @@
         <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>624</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15">
@@ -11336,10 +12624,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -11352,10 +12640,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -11368,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -11380,9 +12668,9 @@
           <t>Total M-Pesa Fees:</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>KES 8,909</t>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>KES 9,913</t>
         </is>
       </c>
     </row>
@@ -11481,12 +12769,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Total Outstanding:</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>KES 30,000</t>
         </is>
@@ -11506,7 +12794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11549,15 +12837,235 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 4 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>4 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>3 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>KES 0</t>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>KES 16,200</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KES 1,000,000</t>
+          <t>KES 1,300,000</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 119,000</t>
+          <t>KES 419,000</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>88.1%</t>
+          <t>67.77%</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 16,200</t>
+          <t>KES 47,300</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 46,200</t>
+          <t>KES 77,300</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 927,200</t>
+          <t>KES 958,300</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>92.72%</t>
+          <t>73.72%</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES 72,800</t>
+          <t>KES 341,700</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>24.34%</t>
+          <t>18.73%</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>19.50%</t>
+          <t>15.00%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>17.84%</t>
+          <t>13.72%</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>13.20%</t>
+          <t>10.15%</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>8.14%</t>
+          <t>6.26%</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>1.90%</t>
+          <t>1.46%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>1.70%</t>
+          <t>1.31%</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.74%</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.40%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12378,6 +12378,867 @@
       <c r="I280" s="4" t="inlineStr">
         <is>
           <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="5" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B281" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C281" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D281" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E281" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F281" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I281" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="5" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B282" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C282" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D282" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E282" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F282" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I282" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="5" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B283" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C283" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D283" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E283" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F283" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I283" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="5" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B284" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C284" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D284" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E284" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F284" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I284" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="5" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B285" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C285" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D285" s="5" t="inlineStr">
+        <is>
+          <t>3 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E285" s="5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F285" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I285" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="5" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B286" s="5" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C286" s="5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D286" s="5" t="inlineStr">
+        <is>
+          <t>Water - UNPAID</t>
+        </is>
+      </c>
+      <c r="E286" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F286" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" s="5" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I286" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="5" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B287" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C287" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D287" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E287" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F287" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I287" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="5" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B288" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C288" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D288" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E288" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F288" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I288" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="5" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B289" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C289" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D289" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E289" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F289" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I289" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="5" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B290" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C290" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D290" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E290" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F290" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I290" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="5" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B291" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C291" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D291" s="5" t="inlineStr">
+        <is>
+          <t>3 helpers @ 800 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E291" s="5" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F291" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I291" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="5" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B292" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C292" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D292" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E292" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F292" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G292" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H292" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I292" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="5" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B293" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C293" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D293" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E293" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F293" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G293" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H293" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I293" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="5" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B294" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C294" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D294" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E294" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F294" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G294" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I294" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="5" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B295" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C295" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D295" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E295" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F295" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I295" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="5" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B296" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C296" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D296" s="5" t="inlineStr">
+        <is>
+          <t>3 helpers @ 800 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E296" s="5" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F296" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G296" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H296" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I296" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="5" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B297" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C297" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D297" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E297" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F297" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H297" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I297" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="5" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B298" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C298" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D298" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E298" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F298" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I298" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="5" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B299" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C299" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D299" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E299" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F299" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I299" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="5" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B300" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C300" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D300" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E300" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F300" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I300" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="5" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B301" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C301" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D301" s="5" t="inlineStr">
+        <is>
+          <t>3 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E301" s="5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F301" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H301" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I301" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
         </is>
       </c>
     </row>
@@ -12464,7 +13325,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
         <v>725</v>
@@ -12560,7 +13421,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
         <v>840</v>
@@ -12794,7 +13655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13057,15 +13918,435 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>3 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Water - UNPAID</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>3 helpers @ 800 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D29" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>3 helpers @ 800 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>3 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>KES 16,200</t>
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t>KES 47,300</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 881,000</t>
+          <t>KES 886,450</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 419,000</t>
+          <t>KES 413,550</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>67.77%</t>
+          <t>68.19%</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 9,913</t>
+          <t>KES 9,963</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 47,300</t>
+          <t>KES 46,100</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 77,300</t>
+          <t>KES 76,100</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 958,300</t>
+          <t>KES 962,550</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>73.72%</t>
+          <t>74.04%</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES 341,700</t>
+          <t>KES 337,450</t>
         </is>
       </c>
     </row>
@@ -785,17 +785,17 @@
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>18760</v>
+        <v>24160</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>18960</v>
+        <v>24410</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>1.46%</t>
+          <t>1.88%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12809,11 +12809,11 @@
       </c>
       <c r="D291" s="5" t="inlineStr">
         <is>
-          <t>3 helpers @ 800 each - UNPAID</t>
+          <t>3 helpers @ 600 each - UNPAID</t>
         </is>
       </c>
       <c r="E291" s="5" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="F291" s="5" t="n">
         <v>0</v>
@@ -13014,11 +13014,11 @@
       </c>
       <c r="D296" s="5" t="inlineStr">
         <is>
-          <t>3 helpers @ 800 each - UNPAID</t>
+          <t>3 helpers @ 600 each - UNPAID</t>
         </is>
       </c>
       <c r="E296" s="5" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="F296" s="5" t="n">
         <v>0</v>
@@ -13038,84 +13038,84 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="5" t="inlineStr">
-        <is>
-          <t>03/10/2025</t>
-        </is>
-      </c>
-      <c r="B297" s="5" t="inlineStr">
-        <is>
-          <t>Labor Costs</t>
-        </is>
-      </c>
-      <c r="C297" s="5" t="inlineStr">
-        <is>
-          <t>Daily Labor</t>
-        </is>
-      </c>
-      <c r="D297" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E297" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F297" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G297" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H297" s="5" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="I297" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="A297" s="4" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B297" s="4" t="inlineStr">
+        <is>
+          <t>Workers Accommodation</t>
+        </is>
+      </c>
+      <c r="C297" s="4" t="inlineStr">
+        <is>
+          <t>Food Supplies</t>
+        </is>
+      </c>
+      <c r="D297" s="4" t="inlineStr">
+        <is>
+          <t>Unga and cooking oil for workers</t>
+        </is>
+      </c>
+      <c r="E297" s="4" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F297" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G297" s="4" t="n">
+        <v>2725</v>
+      </c>
+      <c r="H297" s="4" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I297" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="5" t="inlineStr">
-        <is>
-          <t>03/10/2025</t>
-        </is>
-      </c>
-      <c r="B298" s="5" t="inlineStr">
-        <is>
-          <t>Labor Costs</t>
-        </is>
-      </c>
-      <c r="C298" s="5" t="inlineStr">
-        <is>
-          <t>Daily Labor</t>
-        </is>
-      </c>
-      <c r="D298" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E298" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F298" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G298" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H298" s="5" t="inlineStr">
-        <is>
-          <t>Worker</t>
-        </is>
-      </c>
-      <c r="I298" s="6" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="A298" s="4" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B298" s="4" t="inlineStr">
+        <is>
+          <t>Workers Accommodation</t>
+        </is>
+      </c>
+      <c r="C298" s="4" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D298" s="4" t="inlineStr">
+        <is>
+          <t>Unga and cooking oil for workers</t>
+        </is>
+      </c>
+      <c r="E298" s="4" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F298" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G298" s="4" t="n">
+        <v>2725</v>
+      </c>
+      <c r="H298" s="4" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="I298" s="4" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -13137,11 +13137,11 @@
       </c>
       <c r="D299" s="5" t="inlineStr">
         <is>
-          <t>Fundi 2 - UNPAID</t>
+          <t>Jack - UNPAID</t>
         </is>
       </c>
       <c r="E299" s="5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F299" s="5" t="n">
         <v>0</v>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="D300" s="5" t="inlineStr">
         <is>
-          <t>Fundi 3 - UNPAID</t>
+          <t>Fundi 1 - UNPAID</t>
         </is>
       </c>
       <c r="E300" s="5" t="n">
@@ -13219,11 +13219,11 @@
       </c>
       <c r="D301" s="5" t="inlineStr">
         <is>
-          <t>3 helpers @ 600 each - UNPAID</t>
+          <t>Fundi 2 - UNPAID</t>
         </is>
       </c>
       <c r="E301" s="5" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="F301" s="5" t="n">
         <v>0</v>
@@ -13237,6 +13237,88 @@
         </is>
       </c>
       <c r="I301" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="5" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B302" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C302" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D302" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 3 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E302" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F302" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G302" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H302" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I302" s="6" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="5" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B303" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C303" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D303" s="5" t="inlineStr">
+        <is>
+          <t>3 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E303" s="5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F303" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G303" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H303" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I303" s="6" t="inlineStr">
         <is>
           <t>UNPAID</t>
         </is>
@@ -13325,10 +13407,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6">
@@ -13531,7 +13613,7 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>KES 9,913</t>
+          <t>KES 9,963</t>
         </is>
       </c>
     </row>
@@ -14126,11 +14208,11 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>3 helpers @ 800 each - UNPAID</t>
+          <t>3 helpers @ 600 each - UNPAID</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
@@ -14226,11 +14308,11 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>3 helpers @ 800 each - UNPAID</t>
+          <t>3 helpers @ 600 each - UNPAID</t>
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
@@ -14346,7 +14428,7 @@
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>KES 47,300</t>
+          <t>KES 46,100</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KES 1,490,000</t>
+          <t>KES 1,000,000</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 1,463,213</t>
+          <t>KES 1,473,573</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES 26,786</t>
+          <t>KES -473,573</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>98.2%</t>
+          <t>147.36%</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 16,771</t>
+          <t>KES 16,901</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 10,600</t>
+          <t>KES 15,900</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 101,900</t>
+          <t>KES 107,200</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 1,565,113</t>
+          <t>KES 1,580,773</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>105.04%</t>
+          <t>158.08%</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES -75,113</t>
+          <t>KES -580,773</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 184,910</t>
+          <t>KES 185,705</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KES 1,750,023</t>
+          <t>KES 1,766,478</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KES 260,023</t>
+          <t>KES 766,478</t>
         </is>
       </c>
     </row>
@@ -755,17 +755,17 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>475220</v>
+        <v>485450</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>5949.5</v>
+        <v>6079.5</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>481169.5</v>
+        <v>491529.5</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>32.29%</t>
+          <t>49.15%</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>23.66%</t>
+          <t>35.26%</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>18.79%</t>
+          <t>28.00%</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>11.97%</t>
+          <t>17.84%</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>9.15%</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>2.10%</t>
+          <t>3.13%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>1.49%</t>
+          <t>2.22%</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>1.08%</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>1.01%</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.52%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I464"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20016,6 +20016,334 @@
         </is>
       </c>
       <c r="I464" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="6" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B465" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C465" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D465" s="6" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E465" s="6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F465" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G465" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H465" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I465" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="6" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B466" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C466" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D466" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E466" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F466" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G466" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H466" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I466" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="6" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B467" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C467" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D467" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E467" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F467" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G467" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H467" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I467" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="6" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B468" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C468" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D468" s="6" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E468" s="6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F468" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G468" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H468" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I468" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="5" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B469" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C469" s="5" t="inlineStr">
+        <is>
+          <t>Finishing Materials</t>
+        </is>
+      </c>
+      <c r="D469" s="5" t="inlineStr">
+        <is>
+          <t>17ft faceboard 8X1 @ 90</t>
+        </is>
+      </c>
+      <c r="E469" s="5" t="n">
+        <v>1530</v>
+      </c>
+      <c r="F469" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G469" s="5" t="n">
+        <v>1555</v>
+      </c>
+      <c r="H469" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I469" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="5" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B470" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C470" s="5" t="inlineStr">
+        <is>
+          <t>Ceiling Materials</t>
+        </is>
+      </c>
+      <c r="D470" s="5" t="inlineStr">
+        <is>
+          <t>6 ceiling board 9mm @ 1050</t>
+        </is>
+      </c>
+      <c r="E470" s="5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="F470" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G470" s="5" t="n">
+        <v>6375</v>
+      </c>
+      <c r="H470" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I470" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="5" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B471" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C471" s="5" t="inlineStr">
+        <is>
+          <t>Finishing Materials</t>
+        </is>
+      </c>
+      <c r="D471" s="5" t="inlineStr">
+        <is>
+          <t>8 pcs Aluminium corners strip gold @ 250</t>
+        </is>
+      </c>
+      <c r="E471" s="5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F471" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G471" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H471" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I471" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="5" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B472" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C472" s="5" t="inlineStr">
+        <is>
+          <t>Ceiling Materials</t>
+        </is>
+      </c>
+      <c r="D472" s="5" t="inlineStr">
+        <is>
+          <t>Spacers 2.5mm 4 packets @ 100</t>
+        </is>
+      </c>
+      <c r="E472" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="F472" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G472" s="5" t="n">
+        <v>405</v>
+      </c>
+      <c r="H472" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I472" s="5" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -20120,10 +20448,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="7">
@@ -20152,10 +20480,10 @@
         <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>1275</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="9">
@@ -20200,7 +20528,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D11" t="n">
         <v>2160</v>
@@ -20264,10 +20592,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16">
@@ -20310,7 +20638,7 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>KES 16,771</t>
+          <t>KES 16,901</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20717,15 +21045,95 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>KES 10,600</t>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>KES 15,900</t>
         </is>
       </c>
     </row>
@@ -20957,7 +21365,7 @@
         </is>
       </c>
       <c r="C15" s="11" t="n">
-        <v>37410</v>
+        <v>38205</v>
       </c>
     </row>
     <row r="17">
@@ -20968,7 +21376,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>KES 184,910</t>
+          <t>KES 185,705</t>
         </is>
       </c>
     </row>
@@ -20987,7 +21395,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KES 1,463,213</t>
+          <t>KES 1,473,573</t>
         </is>
       </c>
     </row>
@@ -21011,7 +21419,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KES 10,600</t>
+          <t>KES 15,900</t>
         </is>
       </c>
     </row>
@@ -21023,7 +21431,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KES 184,910</t>
+          <t>KES 185,705</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21443,7 @@
       </c>
       <c r="B25" s="13" t="inlineStr">
         <is>
-          <t>KES 1,750,023</t>
+          <t>KES 1,766,478</t>
         </is>
       </c>
     </row>
@@ -21047,7 +21455,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KES 1,490,000</t>
+          <t>KES 1,000,000</t>
         </is>
       </c>
     </row>
@@ -21059,7 +21467,7 @@
       </c>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>KES 260,023</t>
+          <t>KES 766,478</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 1,473,573</t>
+          <t>KES 1,492,074</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES -473,573</t>
+          <t>KES -492,074</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>147.36%</t>
+          <t>149.21%</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 16,901</t>
+          <t>KES 17,112</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 15,900</t>
+          <t>KES 27,700</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 107,200</t>
+          <t>KES 119,000</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 1,580,773</t>
+          <t>KES 1,611,074</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>158.08%</t>
+          <t>161.11%</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES -580,773</t>
+          <t>KES -611,074</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 185,705</t>
+          <t>KES 170,225</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KES 1,766,478</t>
+          <t>KES 1,781,299</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KES 766,478</t>
+          <t>KES 781,299</t>
         </is>
       </c>
     </row>
@@ -755,17 +755,17 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>485450</v>
+        <v>490100</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>6079.5</v>
+        <v>6129.5</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>491529.5</v>
+        <v>496229.5</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>49.15%</t>
+          <t>49.62%</t>
         </is>
       </c>
     </row>
@@ -797,17 +797,17 @@
         </is>
       </c>
       <c r="B27" s="5" t="n">
-        <v>276671</v>
+        <v>276971</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3325.5</v>
+        <v>3330.5</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>279996.5</v>
+        <v>280301.5</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>28.00%</t>
+          <t>28.03%</t>
         </is>
       </c>
     </row>
@@ -898,61 +898,82 @@
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Finishing &amp; Decoration</t>
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>10730</v>
+        <v>13340</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>10845</v>
+        <v>13496</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>1.35%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>Furniture &amp; Fixtures</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>10000</v>
+        <v>10730</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>10096</v>
+        <v>10845</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>1.08%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
+          <t>Furniture &amp; Fixtures</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>10096</v>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
           <t>Utilities &amp; Services</t>
         </is>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B35" s="5" t="n">
         <v>5100</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C35" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D35" s="5" t="n">
         <v>5175</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>0.52%</t>
         </is>
@@ -972,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I472"/>
+  <dimension ref="A1:I485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20344,6 +20365,539 @@
         </is>
       </c>
       <c r="I472" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="6" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B473" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C473" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D473" s="6" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E473" s="6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F473" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G473" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H473" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I473" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="6" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B474" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C474" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D474" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E474" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F474" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G474" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H474" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I474" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="6" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B475" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C475" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D475" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E475" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F475" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G475" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H475" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I475" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="6" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B476" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C476" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D476" s="6" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E476" s="6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F476" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G476" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H476" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I476" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="5" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B477" s="5" t="inlineStr">
+        <is>
+          <t>Finishing &amp; Decoration</t>
+        </is>
+      </c>
+      <c r="C477" s="5" t="inlineStr">
+        <is>
+          <t>Ceiling Materials</t>
+        </is>
+      </c>
+      <c r="D477" s="5" t="inlineStr">
+        <is>
+          <t>58pcs gypsum cornis @ 230</t>
+        </is>
+      </c>
+      <c r="E477" s="5" t="n">
+        <v>13340</v>
+      </c>
+      <c r="F477" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="G477" s="5" t="n">
+        <v>13496</v>
+      </c>
+      <c r="H477" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I477" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="5" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B478" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C478" s="5" t="inlineStr">
+        <is>
+          <t>Finishing Materials</t>
+        </is>
+      </c>
+      <c r="D478" s="5" t="inlineStr">
+        <is>
+          <t>1 bag gypsum filler @ 2150</t>
+        </is>
+      </c>
+      <c r="E478" s="5" t="n">
+        <v>2150</v>
+      </c>
+      <c r="F478" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G478" s="5" t="n">
+        <v>2175</v>
+      </c>
+      <c r="H478" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I478" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="6" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B479" s="6" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C479" s="6" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D479" s="6" t="inlineStr">
+        <is>
+          <t>Water - UNPAID</t>
+        </is>
+      </c>
+      <c r="E479" s="6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F479" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G479" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H479" s="6" t="inlineStr">
+        <is>
+          <t>Water Supplier</t>
+        </is>
+      </c>
+      <c r="I479" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="6" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B480" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C480" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D480" s="6" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E480" s="6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F480" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G480" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H480" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I480" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="6" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B481" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C481" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D481" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E481" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F481" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G481" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H481" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I481" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="6" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B482" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C482" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D482" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E482" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F482" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G482" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H482" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I482" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="6" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B483" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C483" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D483" s="6" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E483" s="6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F483" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G483" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H483" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I483" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="5" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B484" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C484" s="5" t="inlineStr">
+        <is>
+          <t>Paint &amp; Finishes</t>
+        </is>
+      </c>
+      <c r="D484" s="5" t="inlineStr">
+        <is>
+          <t>Redoxide 10kg @ 250</t>
+        </is>
+      </c>
+      <c r="E484" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F484" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G484" s="5" t="n">
+        <v>2525</v>
+      </c>
+      <c r="H484" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I484" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="5" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B485" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Items</t>
+        </is>
+      </c>
+      <c r="C485" s="5" t="inlineStr">
+        <is>
+          <t>Tools</t>
+        </is>
+      </c>
+      <c r="D485" s="5" t="inlineStr">
+        <is>
+          <t>2 wire brushes @ 150</t>
+        </is>
+      </c>
+      <c r="E485" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="F485" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G485" s="5" t="n">
+        <v>305</v>
+      </c>
+      <c r="H485" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I485" s="5" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -20448,10 +21002,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="7">
@@ -20528,7 +21082,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D11" t="n">
         <v>2160</v>
@@ -20576,10 +21130,10 @@
         <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>1404</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="15">
@@ -20592,10 +21146,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
@@ -20638,7 +21192,7 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>KES 16,901</t>
+          <t>KES 17,112</t>
         </is>
       </c>
     </row>
@@ -20842,7 +21396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21125,15 +21679,195 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Water - UNPAID</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>KES 15,900</t>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>KES 27,700</t>
         </is>
       </c>
     </row>
@@ -21151,7 +21885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21221,16 +21955,16 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Finishing &amp; Decoration</t>
+          <t>Paint</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Cornis</t>
+          <t>4 ltrs silk Lagoon</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7">
@@ -21241,11 +21975,11 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>4 ltrs silk Lagoon</t>
+          <t>20 ltrs silk Ivory</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>3000</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="8">
@@ -21256,26 +21990,26 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>20 ltrs silk Ivory</t>
+          <t>4 ltrs silk grey</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>14700</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Paint</t>
+          <t>Paint - Outside</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>4 ltrs silk grey</t>
+          <t>4 ltrs Aquatech white</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="10">
@@ -21286,11 +22020,11 @@
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>4 ltrs Aquatech white</t>
+          <t>4 ltrs gloss black</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11">
@@ -21301,11 +22035,11 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>4 ltrs gloss black</t>
+          <t>4 ltrs weatherguard ivory</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="12">
@@ -21316,158 +22050,143 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>4 ltrs weatherguard ivory</t>
+          <t>6 @ 4 ltrs weatherguard silicone @ 3200 each</t>
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3200</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Paint - Outside</t>
+          <t>Construction Work</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>6 @ 4 ltrs weatherguard silicone @ 3200 each</t>
+          <t>Veranda works and other pending concrete work</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>19200</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Construction Work</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Veranda works and other pending concrete work</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>Miscellaneous &amp; Contingency</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>Estimated miscellaneous costs (15% of remaining work) - includes transport, food, accommodation, unexpected items</t>
         </is>
       </c>
-      <c r="C15" s="11" t="n">
-        <v>38205</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="C14" s="11" t="n">
+        <v>37725</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>Total Pending Purchases:</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>KES 185,705</t>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>KES 170,225</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>SUMMARY:</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="inlineStr">
-        <is>
-          <t>SUMMARY:</t>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1. Already Spent (Paid):</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KES 1,492,074</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1. Already Spent (Paid):</t>
+          <t>2. Outstanding Balances:</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KES 1,473,573</t>
+          <t>KES 91,300</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2. Outstanding Balances:</t>
+          <t>3. Unpaid Labor:</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KES 91,300</t>
+          <t>KES 27,700</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3. Unpaid Labor:</t>
+          <t>4. Pending Purchases:</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KES 15,900</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>4. Pending Purchases:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>KES 185,705</t>
+          <t>KES 170,225</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="inlineStr">
+        <is>
+          <t>TOTAL PROJECT COST:</t>
+        </is>
+      </c>
+      <c r="B24" s="13" t="inlineStr">
+        <is>
+          <t>KES 1,781,299</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="inlineStr">
-        <is>
-          <t>TOTAL PROJECT COST:</t>
-        </is>
-      </c>
-      <c r="B25" s="13" t="inlineStr">
-        <is>
-          <t>KES 1,766,478</t>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Current Budget:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KES 1,000,000</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Current Budget:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>KES 1,000,000</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="inlineStr">
+      <c r="A26" s="14" t="inlineStr">
         <is>
           <t>Additional Funds Needed:</t>
         </is>
       </c>
-      <c r="B27" s="14" t="inlineStr">
-        <is>
-          <t>KES 766,478</t>
+      <c r="B26" s="14" t="inlineStr">
+        <is>
+          <t>KES 781,299</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 1,492,074</t>
+          <t>KES 1,494,249</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES -492,074</t>
+          <t>KES -494,249</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>149.21%</t>
+          <t>149.42%</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 17,112</t>
+          <t>KES 17,137</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 1,611,074</t>
+          <t>KES 1,613,249</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161.11%</t>
+          <t>161.32%</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES -611,074</t>
+          <t>KES -613,249</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KES 1,781,299</t>
+          <t>KES 1,783,474</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KES 781,299</t>
+          <t>KES 783,474</t>
         </is>
       </c>
     </row>
@@ -755,17 +755,17 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>490100</v>
+        <v>492250</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>6129.5</v>
+        <v>6154.5</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>496229.5</v>
+        <v>498404.5</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>49.62%</t>
+          <t>49.84%</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I485"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20898,6 +20898,47 @@
         </is>
       </c>
       <c r="I485" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="5" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B486" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C486" s="5" t="inlineStr">
+        <is>
+          <t>Finishing Materials</t>
+        </is>
+      </c>
+      <c r="D486" s="5" t="inlineStr">
+        <is>
+          <t>1 bag gypsum filler @ 2150</t>
+        </is>
+      </c>
+      <c r="E486" s="5" t="n">
+        <v>2150</v>
+      </c>
+      <c r="F486" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G486" s="5" t="n">
+        <v>2175</v>
+      </c>
+      <c r="H486" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I486" s="5" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -21002,10 +21043,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>1700</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="7">
@@ -21192,7 +21233,7 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>KES 17,112</t>
+          <t>KES 17,137</t>
         </is>
       </c>
     </row>
@@ -22114,7 +22155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 1,492,074</t>
+          <t>KES 1,494,249</t>
         </is>
       </c>
     </row>
@@ -22162,7 +22203,7 @@
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>KES 1,781,299</t>
+          <t>KES 1,783,474</t>
         </is>
       </c>
     </row>
@@ -22186,7 +22227,7 @@
       </c>
       <c r="B26" s="14" t="inlineStr">
         <is>
-          <t>KES 781,299</t>
+          <t>KES 783,474</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 1,494,249</t>
+          <t>KES 1,504,345</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES -494,249</t>
+          <t>KES -504,345</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>149.42%</t>
+          <t>150.43%</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 17,137</t>
+          <t>KES 17,233</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KES 91,300</t>
+          <t>KES 81,300</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 119,000</t>
+          <t>KES 109,000</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 1,613,249</t>
+          <t>KES 1,613,345</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161.32%</t>
+          <t>161.33%</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES -613,249</t>
+          <t>KES -613,345</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 170,225</t>
+          <t>KES 168,725</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KES 1,783,474</t>
+          <t>KES 1,782,070</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KES 783,474</t>
+          <t>KES 782,070</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>348600</v>
+        <v>358600</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3988.5</v>
+        <v>4084.5</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>352588.5</v>
+        <v>362684.5</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>35.26%</t>
+          <t>36.27%</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I486"/>
+  <dimension ref="A1:I487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20939,6 +20939,47 @@
         </is>
       </c>
       <c r="I486" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="5" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="B487" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C487" s="5" t="inlineStr">
+        <is>
+          <t>Specialist Work</t>
+        </is>
+      </c>
+      <c r="D487" s="5" t="inlineStr">
+        <is>
+          <t>Payment for painting work</t>
+        </is>
+      </c>
+      <c r="E487" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F487" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="G487" s="5" t="n">
+        <v>10096</v>
+      </c>
+      <c r="H487" s="5" t="inlineStr">
+        <is>
+          <t>Painter</t>
+        </is>
+      </c>
+      <c r="I487" s="5" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -21027,10 +21068,10 @@
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>1728</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="6">
@@ -21233,7 +21274,7 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>KES 17,137</t>
+          <t>KES 17,233</t>
         </is>
       </c>
     </row>
@@ -21359,11 +21400,11 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>Painting work - 30000</t>
+          <t>Painting work - 30000, paid 10000 on 23/10 = 20000 remaining</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
@@ -21419,7 +21460,7 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>KES 91,300</t>
+          <t>KES 81,300</t>
         </is>
       </c>
     </row>
@@ -22125,7 +22166,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>37725</v>
+        <v>36225</v>
       </c>
     </row>
     <row r="16">
@@ -22136,7 +22177,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>KES 170,225</t>
+          <t>KES 168,725</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22196,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 1,494,249</t>
+          <t>KES 1,504,345</t>
         </is>
       </c>
     </row>
@@ -22167,7 +22208,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KES 91,300</t>
+          <t>KES 81,300</t>
         </is>
       </c>
     </row>
@@ -22191,7 +22232,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KES 170,225</t>
+          <t>KES 168,725</t>
         </is>
       </c>
     </row>
@@ -22203,7 +22244,7 @@
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>KES 1,783,474</t>
+          <t>KES 1,782,070</t>
         </is>
       </c>
     </row>
@@ -22227,7 +22268,7 @@
       </c>
       <c r="B26" s="14" t="inlineStr">
         <is>
-          <t>KES 783,474</t>
+          <t>KES 782,070</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 1,504,345</t>
+          <t>KES 1,515,301</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES -504,345</t>
+          <t>KES -515,301</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>150.43%</t>
+          <t>151.53%</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 17,233</t>
+          <t>KES 17,389</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 1,613,345</t>
+          <t>KES 1,624,301</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161.33%</t>
+          <t>162.43%</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES -613,345</t>
+          <t>KES -624,301</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KES 1,782,070</t>
+          <t>KES 1,793,026</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KES 782,070</t>
+          <t>KES 793,026</t>
         </is>
       </c>
     </row>
@@ -755,17 +755,17 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>492250</v>
+        <v>503050</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>6154.5</v>
+        <v>6310.5</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>498404.5</v>
+        <v>509360.5</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>49.84%</t>
+          <t>50.94%</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I487"/>
+  <dimension ref="A1:I488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20980,6 +20980,47 @@
         </is>
       </c>
       <c r="I487" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="5" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B488" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C488" s="5" t="inlineStr">
+        <is>
+          <t>Cement &amp; Concrete</t>
+        </is>
+      </c>
+      <c r="D488" s="5" t="inlineStr">
+        <is>
+          <t>15 bags Simba cement @ 720</t>
+        </is>
+      </c>
+      <c r="E488" s="5" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F488" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="G488" s="5" t="n">
+        <v>10956</v>
+      </c>
+      <c r="H488" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I488" s="5" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -21212,10 +21253,10 @@
         <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>1560</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="15">
@@ -21274,7 +21315,7 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>KES 17,233</t>
+          <t>KES 17,389</t>
         </is>
       </c>
     </row>
@@ -22196,7 +22237,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 1,504,345</t>
+          <t>KES 1,515,301</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22285,7 @@
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>KES 1,782,070</t>
+          <t>KES 1,793,026</t>
         </is>
       </c>
     </row>
@@ -22268,7 +22309,7 @@
       </c>
       <c r="B26" s="14" t="inlineStr">
         <is>
-          <t>KES 782,070</t>
+          <t>KES 793,026</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 1,515,301</t>
+          <t>KES 1,516,311</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES -515,301</t>
+          <t>KES -516,311</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>151.53%</t>
+          <t>151.63%</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 17,389</t>
+          <t>KES 17,399</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 27,700</t>
+          <t>KES 38,900</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 109,000</t>
+          <t>KES 120,200</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 1,624,301</t>
+          <t>KES 1,636,511</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>162.43%</t>
+          <t>163.65%</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES -624,301</t>
+          <t>KES -636,511</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 168,725</t>
+          <t>KES 170,405</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KES 1,793,026</t>
+          <t>KES 1,806,916</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KES 793,026</t>
+          <t>KES 806,916</t>
         </is>
       </c>
     </row>
@@ -755,17 +755,17 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>503050</v>
+        <v>504050</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>6310.5</v>
+        <v>6320.5</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>509360.5</v>
+        <v>510370.5</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>50.94%</t>
+          <t>51.04%</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I488"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21021,6 +21021,416 @@
         </is>
       </c>
       <c r="I488" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="6" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B489" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C489" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D489" s="6" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E489" s="6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F489" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G489" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H489" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I489" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="6" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B490" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C490" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D490" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E490" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F490" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G490" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H490" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I490" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="6" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B491" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C491" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D491" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E491" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F491" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G491" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H491" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I491" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="6" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B492" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C492" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D492" s="6" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E492" s="6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F492" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G492" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H492" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I492" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="6" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B493" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C493" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D493" s="6" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="E493" s="6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F493" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G493" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H493" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I493" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="6" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B494" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C494" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D494" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E494" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F494" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G494" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H494" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I494" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="6" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B495" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C495" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D495" s="6" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="E495" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F495" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G495" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H495" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I495" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="6" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B496" s="6" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C496" s="6" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D496" s="6" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="E496" s="6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F496" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G496" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H496" s="6" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I496" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="6" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B497" s="6" t="inlineStr">
+        <is>
+          <t>Transport &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="C497" s="6" t="inlineStr">
+        <is>
+          <t>Worker Transport</t>
+        </is>
+      </c>
+      <c r="D497" s="6" t="inlineStr">
+        <is>
+          <t>Transport - UNPAID</t>
+        </is>
+      </c>
+      <c r="E497" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="F497" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G497" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H497" s="6" t="inlineStr">
+        <is>
+          <t>Local Transport</t>
+        </is>
+      </c>
+      <c r="I497" s="7" t="inlineStr">
+        <is>
+          <t>UNPAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B498" s="5" t="inlineStr">
+        <is>
+          <t>Building Materials</t>
+        </is>
+      </c>
+      <c r="C498" s="5" t="inlineStr">
+        <is>
+          <t>Paint &amp; Finishes</t>
+        </is>
+      </c>
+      <c r="D498" s="5" t="inlineStr">
+        <is>
+          <t>5kg red oxide @ 200</t>
+        </is>
+      </c>
+      <c r="E498" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F498" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G498" s="5" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H498" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Store</t>
+        </is>
+      </c>
+      <c r="I498" s="5" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -21205,7 +21615,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D11" t="n">
         <v>2160</v>
@@ -21221,10 +21631,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
-        <v>900</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13">
@@ -21315,7 +21725,7 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>KES 17,389</t>
+          <t>KES 17,399</t>
         </is>
       </c>
     </row>
@@ -21519,7 +21929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21982,15 +22392,195 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
     <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D27" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>24/10/2025</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Jack - UNPAID</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D29" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - UNPAID</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D31" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - UNPAID</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>Transport - UNPAID</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>KES 27,700</t>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>KES 38,900</t>
         </is>
       </c>
     </row>
@@ -22207,7 +22797,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>36225</v>
+        <v>37905</v>
       </c>
     </row>
     <row r="16">
@@ -22218,7 +22808,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>KES 168,725</t>
+          <t>KES 170,405</t>
         </is>
       </c>
     </row>
@@ -22237,7 +22827,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 1,515,301</t>
+          <t>KES 1,516,311</t>
         </is>
       </c>
     </row>
@@ -22261,7 +22851,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KES 27,700</t>
+          <t>KES 38,900</t>
         </is>
       </c>
     </row>
@@ -22273,7 +22863,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KES 168,725</t>
+          <t>KES 170,405</t>
         </is>
       </c>
     </row>
@@ -22285,7 +22875,7 @@
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>KES 1,793,026</t>
+          <t>KES 1,806,916</t>
         </is>
       </c>
     </row>
@@ -22309,7 +22899,7 @@
       </c>
       <c r="B26" s="14" t="inlineStr">
         <is>
-          <t>KES 793,026</t>
+          <t>KES 806,916</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,14 +53,6 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00CC0000"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00E74C3C"/>
     </font>
     <font>
       <b val="1"/>
@@ -78,7 +70,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -89,12 +81,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCC"/>
-        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -122,22 +108,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -552,7 +535,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 1,516,311</t>
+          <t>KES 1,615,182</t>
         </is>
       </c>
     </row>
@@ -564,7 +547,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES -516,311</t>
+          <t>KES -615,182</t>
         </is>
       </c>
     </row>
@@ -576,7 +559,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>151.63%</t>
+          <t>161.52%</t>
         </is>
       </c>
     </row>
@@ -588,7 +571,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 17,399</t>
+          <t>KES 18,535</t>
         </is>
       </c>
     </row>
@@ -607,7 +590,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KES 81,300</t>
+          <t>KES 66,000</t>
         </is>
       </c>
     </row>
@@ -619,7 +602,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KES 38,900</t>
+          <t>KES 0</t>
         </is>
       </c>
     </row>
@@ -631,7 +614,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 120,200</t>
+          <t>KES 66,000</t>
         </is>
       </c>
     </row>
@@ -643,7 +626,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 1,636,511</t>
+          <t>KES 1,681,182</t>
         </is>
       </c>
     </row>
@@ -655,7 +638,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>163.65%</t>
+          <t>168.12%</t>
         </is>
       </c>
     </row>
@@ -667,7 +650,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES -636,511</t>
+          <t>KES -681,182</t>
         </is>
       </c>
     </row>
@@ -686,7 +669,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 170,405</t>
+          <t>KES 162,275</t>
         </is>
       </c>
     </row>
@@ -698,7 +681,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KES 1,806,916</t>
+          <t>KES 1,843,457</t>
         </is>
       </c>
     </row>
@@ -710,7 +693,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KES 806,916</t>
+          <t>KES 843,457</t>
         </is>
       </c>
     </row>
@@ -776,17 +759,17 @@
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>358600</v>
+        <v>453935</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4084.5</v>
+        <v>5190.5</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>362684.5</v>
+        <v>459125.5</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>36.27%</t>
+          <t>45.91%</t>
         </is>
       </c>
     </row>
@@ -881,17 +864,17 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21950</v>
+        <v>23150</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>22200</v>
+        <v>23415</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>2.34%</t>
         </is>
       </c>
     </row>
@@ -923,17 +906,17 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>10730</v>
+        <v>11930</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>10845</v>
+        <v>12060</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>1.21%</t>
         </is>
       </c>
     </row>
@@ -993,7 +976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I498"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19633,330 +19616,330 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="6" t="inlineStr">
+      <c r="A455" s="5" t="inlineStr">
         <is>
           <t>19/10/2025</t>
         </is>
       </c>
-      <c r="B455" s="6" t="inlineStr">
+      <c r="B455" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C455" s="6" t="inlineStr">
+      <c r="C455" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D455" s="6" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E455" s="6" t="n">
+      <c r="D455" s="5" t="inlineStr">
+        <is>
+          <t>Jack - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E455" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="F455" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G455" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H455" s="6" t="inlineStr">
+      <c r="F455" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G455" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H455" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I455" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I455" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="6" t="inlineStr">
+      <c r="A456" s="5" t="inlineStr">
         <is>
           <t>19/10/2025</t>
         </is>
       </c>
-      <c r="B456" s="6" t="inlineStr">
+      <c r="B456" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C456" s="6" t="inlineStr">
+      <c r="C456" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D456" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E456" s="6" t="n">
+      <c r="D456" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E456" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F456" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G456" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H456" s="6" t="inlineStr">
+      <c r="F456" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G456" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H456" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I456" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I456" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="6" t="inlineStr">
+      <c r="A457" s="5" t="inlineStr">
         <is>
           <t>19/10/2025</t>
         </is>
       </c>
-      <c r="B457" s="6" t="inlineStr">
+      <c r="B457" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C457" s="6" t="inlineStr">
+      <c r="C457" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D457" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E457" s="6" t="n">
+      <c r="D457" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E457" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F457" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G457" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H457" s="6" t="inlineStr">
+      <c r="F457" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G457" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H457" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I457" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I457" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="6" t="inlineStr">
+      <c r="A458" s="5" t="inlineStr">
         <is>
           <t>19/10/2025</t>
         </is>
       </c>
-      <c r="B458" s="6" t="inlineStr">
+      <c r="B458" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C458" s="6" t="inlineStr">
+      <c r="C458" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D458" s="6" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="E458" s="6" t="n">
+      <c r="D458" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E458" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="F458" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G458" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H458" s="6" t="inlineStr">
+      <c r="F458" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G458" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H458" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I458" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I458" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="6" t="inlineStr">
+      <c r="A459" s="5" t="inlineStr">
         <is>
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="B459" s="6" t="inlineStr">
+      <c r="B459" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C459" s="6" t="inlineStr">
+      <c r="C459" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D459" s="6" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E459" s="6" t="n">
+      <c r="D459" s="5" t="inlineStr">
+        <is>
+          <t>Jack - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E459" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="F459" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G459" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H459" s="6" t="inlineStr">
+      <c r="F459" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G459" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H459" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I459" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I459" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="6" t="inlineStr">
+      <c r="A460" s="5" t="inlineStr">
         <is>
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="B460" s="6" t="inlineStr">
+      <c r="B460" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C460" s="6" t="inlineStr">
+      <c r="C460" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D460" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E460" s="6" t="n">
+      <c r="D460" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E460" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F460" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G460" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H460" s="6" t="inlineStr">
+      <c r="F460" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G460" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H460" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I460" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I460" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="6" t="inlineStr">
+      <c r="A461" s="5" t="inlineStr">
         <is>
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="B461" s="6" t="inlineStr">
+      <c r="B461" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C461" s="6" t="inlineStr">
+      <c r="C461" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D461" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E461" s="6" t="n">
+      <c r="D461" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E461" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F461" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G461" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H461" s="6" t="inlineStr">
+      <c r="F461" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G461" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H461" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I461" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I461" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="6" t="inlineStr">
+      <c r="A462" s="5" t="inlineStr">
         <is>
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="B462" s="6" t="inlineStr">
+      <c r="B462" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C462" s="6" t="inlineStr">
+      <c r="C462" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D462" s="6" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="E462" s="6" t="n">
+      <c r="D462" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E462" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="F462" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G462" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H462" s="6" t="inlineStr">
+      <c r="F462" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G462" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H462" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I462" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I462" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -20043,166 +20026,166 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="6" t="inlineStr">
+      <c r="A465" s="5" t="inlineStr">
         <is>
           <t>21/10/2025</t>
         </is>
       </c>
-      <c r="B465" s="6" t="inlineStr">
+      <c r="B465" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C465" s="6" t="inlineStr">
+      <c r="C465" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D465" s="6" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E465" s="6" t="n">
+      <c r="D465" s="5" t="inlineStr">
+        <is>
+          <t>Jack - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E465" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="F465" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G465" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H465" s="6" t="inlineStr">
+      <c r="F465" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G465" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H465" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I465" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I465" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="6" t="inlineStr">
+      <c r="A466" s="5" t="inlineStr">
         <is>
           <t>21/10/2025</t>
         </is>
       </c>
-      <c r="B466" s="6" t="inlineStr">
+      <c r="B466" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C466" s="6" t="inlineStr">
+      <c r="C466" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D466" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E466" s="6" t="n">
+      <c r="D466" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E466" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F466" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G466" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H466" s="6" t="inlineStr">
+      <c r="F466" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G466" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H466" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I466" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I466" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="6" t="inlineStr">
+      <c r="A467" s="5" t="inlineStr">
         <is>
           <t>21/10/2025</t>
         </is>
       </c>
-      <c r="B467" s="6" t="inlineStr">
+      <c r="B467" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C467" s="6" t="inlineStr">
+      <c r="C467" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D467" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E467" s="6" t="n">
+      <c r="D467" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E467" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F467" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G467" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H467" s="6" t="inlineStr">
+      <c r="F467" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G467" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H467" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I467" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I467" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="6" t="inlineStr">
+      <c r="A468" s="5" t="inlineStr">
         <is>
           <t>21/10/2025</t>
         </is>
       </c>
-      <c r="B468" s="6" t="inlineStr">
+      <c r="B468" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C468" s="6" t="inlineStr">
+      <c r="C468" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D468" s="6" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="E468" s="6" t="n">
+      <c r="D468" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E468" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="F468" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G468" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H468" s="6" t="inlineStr">
+      <c r="F468" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G468" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H468" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I468" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I468" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -20371,166 +20354,166 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="6" t="inlineStr">
+      <c r="A473" s="5" t="inlineStr">
         <is>
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="B473" s="6" t="inlineStr">
+      <c r="B473" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C473" s="6" t="inlineStr">
+      <c r="C473" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D473" s="6" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E473" s="6" t="n">
+      <c r="D473" s="5" t="inlineStr">
+        <is>
+          <t>Jack - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E473" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="F473" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G473" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H473" s="6" t="inlineStr">
+      <c r="F473" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G473" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H473" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I473" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I473" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="6" t="inlineStr">
+      <c r="A474" s="5" t="inlineStr">
         <is>
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="B474" s="6" t="inlineStr">
+      <c r="B474" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C474" s="6" t="inlineStr">
+      <c r="C474" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D474" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E474" s="6" t="n">
+      <c r="D474" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E474" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F474" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G474" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H474" s="6" t="inlineStr">
+      <c r="F474" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G474" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H474" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I474" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I474" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="6" t="inlineStr">
+      <c r="A475" s="5" t="inlineStr">
         <is>
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="B475" s="6" t="inlineStr">
+      <c r="B475" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C475" s="6" t="inlineStr">
+      <c r="C475" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D475" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E475" s="6" t="n">
+      <c r="D475" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E475" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F475" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G475" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H475" s="6" t="inlineStr">
+      <c r="F475" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G475" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H475" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I475" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I475" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="6" t="inlineStr">
+      <c r="A476" s="5" t="inlineStr">
         <is>
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="B476" s="6" t="inlineStr">
+      <c r="B476" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C476" s="6" t="inlineStr">
+      <c r="C476" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D476" s="6" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="E476" s="6" t="n">
+      <c r="D476" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E476" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="F476" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G476" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H476" s="6" t="inlineStr">
+      <c r="F476" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G476" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H476" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I476" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I476" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -20617,207 +20600,207 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="6" t="inlineStr">
+      <c r="A479" s="5" t="inlineStr">
         <is>
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="B479" s="6" t="inlineStr">
+      <c r="B479" s="5" t="inlineStr">
         <is>
           <t>Utilities</t>
         </is>
       </c>
-      <c r="C479" s="6" t="inlineStr">
+      <c r="C479" s="5" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
-      <c r="D479" s="6" t="inlineStr">
-        <is>
-          <t>Water - UNPAID</t>
-        </is>
-      </c>
-      <c r="E479" s="6" t="n">
+      <c r="D479" s="5" t="inlineStr">
+        <is>
+          <t>Water - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E479" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="F479" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G479" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H479" s="6" t="inlineStr">
+      <c r="F479" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G479" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H479" s="5" t="inlineStr">
         <is>
           <t>Water Supplier</t>
         </is>
       </c>
-      <c r="I479" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I479" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="6" t="inlineStr">
+      <c r="A480" s="5" t="inlineStr">
         <is>
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="B480" s="6" t="inlineStr">
+      <c r="B480" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C480" s="6" t="inlineStr">
+      <c r="C480" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D480" s="6" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E480" s="6" t="n">
+      <c r="D480" s="5" t="inlineStr">
+        <is>
+          <t>Jack - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E480" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="F480" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G480" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H480" s="6" t="inlineStr">
+      <c r="F480" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G480" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H480" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I480" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I480" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="6" t="inlineStr">
+      <c r="A481" s="5" t="inlineStr">
         <is>
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="B481" s="6" t="inlineStr">
+      <c r="B481" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C481" s="6" t="inlineStr">
+      <c r="C481" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D481" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E481" s="6" t="n">
+      <c r="D481" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E481" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F481" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G481" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H481" s="6" t="inlineStr">
+      <c r="F481" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G481" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H481" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I481" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I481" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="6" t="inlineStr">
+      <c r="A482" s="5" t="inlineStr">
         <is>
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="B482" s="6" t="inlineStr">
+      <c r="B482" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C482" s="6" t="inlineStr">
+      <c r="C482" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D482" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E482" s="6" t="n">
+      <c r="D482" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E482" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F482" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G482" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H482" s="6" t="inlineStr">
+      <c r="F482" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G482" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H482" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I482" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I482" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="6" t="inlineStr">
+      <c r="A483" s="5" t="inlineStr">
         <is>
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="B483" s="6" t="inlineStr">
+      <c r="B483" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C483" s="6" t="inlineStr">
+      <c r="C483" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D483" s="6" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="E483" s="6" t="n">
+      <c r="D483" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E483" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="F483" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G483" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H483" s="6" t="inlineStr">
+      <c r="F483" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G483" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H483" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I483" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I483" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -21027,371 +21010,371 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="6" t="inlineStr">
+      <c r="A489" s="5" t="inlineStr">
         <is>
           <t>24/10/2025</t>
         </is>
       </c>
-      <c r="B489" s="6" t="inlineStr">
+      <c r="B489" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C489" s="6" t="inlineStr">
+      <c r="C489" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D489" s="6" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E489" s="6" t="n">
+      <c r="D489" s="5" t="inlineStr">
+        <is>
+          <t>Jack - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E489" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="F489" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G489" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H489" s="6" t="inlineStr">
+      <c r="F489" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G489" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H489" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I489" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I489" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="6" t="inlineStr">
+      <c r="A490" s="5" t="inlineStr">
         <is>
           <t>24/10/2025</t>
         </is>
       </c>
-      <c r="B490" s="6" t="inlineStr">
+      <c r="B490" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C490" s="6" t="inlineStr">
+      <c r="C490" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D490" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E490" s="6" t="n">
+      <c r="D490" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E490" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F490" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G490" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H490" s="6" t="inlineStr">
+      <c r="F490" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G490" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H490" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I490" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I490" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="6" t="inlineStr">
+      <c r="A491" s="5" t="inlineStr">
         <is>
           <t>24/10/2025</t>
         </is>
       </c>
-      <c r="B491" s="6" t="inlineStr">
+      <c r="B491" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C491" s="6" t="inlineStr">
+      <c r="C491" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D491" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E491" s="6" t="n">
+      <c r="D491" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E491" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F491" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G491" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H491" s="6" t="inlineStr">
+      <c r="F491" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G491" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H491" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I491" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I491" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="6" t="inlineStr">
+      <c r="A492" s="5" t="inlineStr">
         <is>
           <t>24/10/2025</t>
         </is>
       </c>
-      <c r="B492" s="6" t="inlineStr">
+      <c r="B492" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C492" s="6" t="inlineStr">
+      <c r="C492" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D492" s="6" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="E492" s="6" t="n">
+      <c r="D492" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E492" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="F492" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G492" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H492" s="6" t="inlineStr">
+      <c r="F492" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G492" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H492" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I492" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I492" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="6" t="inlineStr">
+      <c r="A493" s="5" t="inlineStr">
         <is>
           <t>25/10/2025</t>
         </is>
       </c>
-      <c r="B493" s="6" t="inlineStr">
+      <c r="B493" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C493" s="6" t="inlineStr">
+      <c r="C493" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D493" s="6" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="E493" s="6" t="n">
+      <c r="D493" s="5" t="inlineStr">
+        <is>
+          <t>Jack - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E493" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="F493" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G493" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H493" s="6" t="inlineStr">
+      <c r="F493" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G493" s="5" t="n">
+        <v>1515</v>
+      </c>
+      <c r="H493" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I493" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I493" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="6" t="inlineStr">
+      <c r="A494" s="5" t="inlineStr">
         <is>
           <t>25/10/2025</t>
         </is>
       </c>
-      <c r="B494" s="6" t="inlineStr">
+      <c r="B494" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C494" s="6" t="inlineStr">
+      <c r="C494" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D494" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E494" s="6" t="n">
+      <c r="D494" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 1 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E494" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F494" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G494" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H494" s="6" t="inlineStr">
+      <c r="F494" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G494" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H494" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I494" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I494" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="6" t="inlineStr">
+      <c r="A495" s="5" t="inlineStr">
         <is>
           <t>25/10/2025</t>
         </is>
       </c>
-      <c r="B495" s="6" t="inlineStr">
+      <c r="B495" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C495" s="6" t="inlineStr">
+      <c r="C495" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D495" s="6" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="E495" s="6" t="n">
+      <c r="D495" s="5" t="inlineStr">
+        <is>
+          <t>Fundi 2 - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E495" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="F495" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G495" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H495" s="6" t="inlineStr">
+      <c r="F495" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G495" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H495" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I495" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I495" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="6" t="inlineStr">
+      <c r="A496" s="5" t="inlineStr">
         <is>
           <t>25/10/2025</t>
         </is>
       </c>
-      <c r="B496" s="6" t="inlineStr">
+      <c r="B496" s="5" t="inlineStr">
         <is>
           <t>Labor Costs</t>
         </is>
       </c>
-      <c r="C496" s="6" t="inlineStr">
+      <c r="C496" s="5" t="inlineStr">
         <is>
           <t>Daily Labor</t>
         </is>
       </c>
-      <c r="D496" s="6" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="E496" s="6" t="n">
+      <c r="D496" s="5" t="inlineStr">
+        <is>
+          <t>2 helpers @ 600 each - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E496" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="F496" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G496" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H496" s="6" t="inlineStr">
+      <c r="F496" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G496" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H496" s="5" t="inlineStr">
         <is>
           <t>Worker</t>
         </is>
       </c>
-      <c r="I496" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I496" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="6" t="inlineStr">
+      <c r="A497" s="5" t="inlineStr">
         <is>
           <t>25/10/2025</t>
         </is>
       </c>
-      <c r="B497" s="6" t="inlineStr">
+      <c r="B497" s="5" t="inlineStr">
         <is>
           <t>Transport &amp; Logistics</t>
         </is>
       </c>
-      <c r="C497" s="6" t="inlineStr">
+      <c r="C497" s="5" t="inlineStr">
         <is>
           <t>Worker Transport</t>
         </is>
       </c>
-      <c r="D497" s="6" t="inlineStr">
-        <is>
-          <t>Transport - UNPAID</t>
-        </is>
-      </c>
-      <c r="E497" s="6" t="n">
-        <v>600</v>
-      </c>
-      <c r="F497" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G497" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H497" s="6" t="inlineStr">
+      <c r="D497" s="5" t="inlineStr">
+        <is>
+          <t>Transport - PAID on 25/10</t>
+        </is>
+      </c>
+      <c r="E497" s="5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F497" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G497" s="5" t="n">
+        <v>1215</v>
+      </c>
+      <c r="H497" s="5" t="inlineStr">
         <is>
           <t>Local Transport</t>
         </is>
       </c>
-      <c r="I497" s="7" t="inlineStr">
-        <is>
-          <t>UNPAID</t>
+      <c r="I497" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
         </is>
       </c>
     </row>
@@ -21431,6 +21414,129 @@
         </is>
       </c>
       <c r="I498" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B499" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C499" s="5" t="inlineStr">
+        <is>
+          <t>Specialist Work</t>
+        </is>
+      </c>
+      <c r="D499" s="5" t="inlineStr">
+        <is>
+          <t>Payment to reduce painting balance</t>
+        </is>
+      </c>
+      <c r="E499" s="5" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F499" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G499" s="5" t="n">
+        <v>7075</v>
+      </c>
+      <c r="H499" s="5" t="inlineStr">
+        <is>
+          <t>Painter</t>
+        </is>
+      </c>
+      <c r="I499" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B500" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C500" s="5" t="inlineStr">
+        <is>
+          <t>Daily Labor</t>
+        </is>
+      </c>
+      <c r="D500" s="5" t="inlineStr">
+        <is>
+          <t>Payment for unpaid labor, water and transport (39500 + 435 M-Pesa fees)</t>
+        </is>
+      </c>
+      <c r="E500" s="5" t="n">
+        <v>39935</v>
+      </c>
+      <c r="F500" s="5" t="n">
+        <v>455</v>
+      </c>
+      <c r="G500" s="5" t="n">
+        <v>40390</v>
+      </c>
+      <c r="H500" s="5" t="inlineStr">
+        <is>
+          <t>Worker</t>
+        </is>
+      </c>
+      <c r="I500" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B501" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C501" s="5" t="inlineStr">
+        <is>
+          <t>Specialist Work</t>
+        </is>
+      </c>
+      <c r="D501" s="5" t="inlineStr">
+        <is>
+          <t>Clear cabinet specialist balance</t>
+        </is>
+      </c>
+      <c r="E501" s="5" t="n">
+        <v>11300</v>
+      </c>
+      <c r="F501" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="G501" s="5" t="n">
+        <v>11456</v>
+      </c>
+      <c r="H501" s="5" t="inlineStr">
+        <is>
+          <t>Cabinet Specialist</t>
+        </is>
+      </c>
+      <c r="I501" s="5" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -21481,29 +21587,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Fee Structure</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Amount Range</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Fee (KES)</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>Transactions</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Total Fees</t>
         </is>
@@ -21567,10 +21673,10 @@
         <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>1350</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="9">
@@ -21599,10 +21705,10 @@
         <v>455</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1365</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="11">
@@ -21615,10 +21721,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D11" t="n">
-        <v>2160</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="12">
@@ -21631,7 +21737,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="n">
         <v>910</v>
@@ -21663,10 +21769,10 @@
         <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>1716</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="15">
@@ -21723,9 +21829,9 @@
           <t>Total M-Pesa Fees:</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>KES 17,399</t>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>KES 18,535</t>
         </is>
       </c>
     </row>
@@ -21851,11 +21957,11 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>Painting work - 30000, paid 10000 on 23/10 = 20000 remaining</t>
+          <t>Painting work - 33000, paid 10000 on 23/10 + 7000 on 25/10 = 16000 remaining</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
@@ -21871,15 +21977,15 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>Original 16000 + unpaid work (3000 doors + 1800 curtain rods + 500 tip), paid 10000 down = 11300 remaining</t>
+          <t>Original 16000 + unpaid work (3000 doors + 1800 curtain rods + 500 tip), paid 10000 down + 11300 final = 0 remaining</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>To be scheduled</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -21904,14 +22010,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Total Outstanding:</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>KES 81,300</t>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>KES 66,000</t>
         </is>
       </c>
     </row>
@@ -21929,7 +22035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21972,615 +22078,15 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D7" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>20/10/2025</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>20/10/2025</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>20/10/2025</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>20/10/2025</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>21/10/2025</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>21/10/2025</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>21/10/2025</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>21/10/2025</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2025</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2025</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2025</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D18" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2025</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>22/10/2025</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Water - UNPAID</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D20" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>23/10/2025</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D21" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>23/10/2025</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D22" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>23/10/2025</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D23" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>23/10/2025</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D24" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>24/10/2025</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D25" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>24/10/2025</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>24/10/2025</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D27" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>24/10/2025</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D28" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Jack - UNPAID</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D29" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 1 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D30" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Fundi 2 - UNPAID</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>2 helpers @ 600 each - UNPAID</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D32" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Transport - UNPAID</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="D33" s="10" t="inlineStr">
-        <is>
-          <t>PENDING</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Total Unpaid Labor:</t>
         </is>
       </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>KES 38,900</t>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>KES 0</t>
         </is>
       </c>
     </row>
@@ -22786,34 +22292,34 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Miscellaneous &amp; Contingency</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Estimated miscellaneous costs (15% of remaining work) - includes transport, food, accommodation, unexpected items</t>
         </is>
       </c>
-      <c r="C14" s="11" t="n">
-        <v>37905</v>
+      <c r="C14" s="8" t="n">
+        <v>29775</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Total Pending Purchases:</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>KES 170,405</t>
+          <t>KES 162,275</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>SUMMARY:</t>
         </is>
@@ -22827,7 +22333,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 1,516,311</t>
+          <t>KES 1,615,182</t>
         </is>
       </c>
     </row>
@@ -22839,7 +22345,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KES 81,300</t>
+          <t>KES 66,000</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22357,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KES 38,900</t>
+          <t>KES 0</t>
         </is>
       </c>
     </row>
@@ -22863,19 +22369,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KES 170,405</t>
+          <t>KES 162,275</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="inlineStr">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>TOTAL PROJECT COST:</t>
         </is>
       </c>
-      <c r="B24" s="13" t="inlineStr">
-        <is>
-          <t>KES 1,806,916</t>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>KES 1,843,457</t>
         </is>
       </c>
     </row>
@@ -22892,14 +22398,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="14" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Additional Funds Needed:</t>
         </is>
       </c>
-      <c r="B26" s="14" t="inlineStr">
-        <is>
-          <t>KES 806,916</t>
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t>KES 843,457</t>
         </is>
       </c>
     </row>

--- a/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
+++ b/mum-in-law-house/Mother-In-Law-House-Expenses.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KES 1,615,182</t>
+          <t>KES 1,629,508</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KES -615,182</t>
+          <t>KES -629,508</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161.52%</t>
+          <t>162.95%</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KES 18,535</t>
+          <t>KES 18,691</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KES 66,000</t>
+          <t>KES 51,830</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KES 66,000</t>
+          <t>KES 51,830</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KES 1,681,182</t>
+          <t>KES 1,681,338</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>168.12%</t>
+          <t>168.13%</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KES -681,182</t>
+          <t>KES -681,338</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 162,275</t>
+          <t>KES 160,149</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KES 1,843,457</t>
+          <t>KES 1,841,487</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KES 843,457</t>
+          <t>KES 841,487</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>453935</v>
+        <v>468105</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5190.5</v>
+        <v>5346.5</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>459125.5</v>
+        <v>473451.5</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>45.91%</t>
+          <t>47.35%</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I501"/>
+  <dimension ref="A1:I502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21537,6 +21537,47 @@
         </is>
       </c>
       <c r="I501" s="5" t="inlineStr">
+        <is>
+          <t>PAID</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="5" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B502" s="5" t="inlineStr">
+        <is>
+          <t>Labor Costs</t>
+        </is>
+      </c>
+      <c r="C502" s="5" t="inlineStr">
+        <is>
+          <t>Specialist Work</t>
+        </is>
+      </c>
+      <c r="D502" s="5" t="inlineStr">
+        <is>
+          <t>Payment for tiling labor</t>
+        </is>
+      </c>
+      <c r="E502" s="5" t="n">
+        <v>14170</v>
+      </c>
+      <c r="F502" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="G502" s="5" t="n">
+        <v>14326</v>
+      </c>
+      <c r="H502" s="5" t="inlineStr">
+        <is>
+          <t>Tile Fixer</t>
+        </is>
+      </c>
+      <c r="I502" s="5" t="inlineStr">
         <is>
           <t>PAID</t>
         </is>
@@ -21769,10 +21810,10 @@
         <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>1872</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="15">
@@ -21831,7 +21872,7 @@
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>KES 18,535</t>
+          <t>KES 18,691</t>
         </is>
       </c>
     </row>
@@ -21997,11 +22038,11 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>Fixing tiles - 30000</t>
+          <t>Fixing tiles - 30000, paid 14170 on 25/10 = 15830 remaining</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>30000</v>
+        <v>15830</v>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
@@ -22017,7 +22058,7 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>KES 66,000</t>
+          <t>KES 51,830</t>
         </is>
       </c>
     </row>
@@ -22303,7 +22344,7 @@
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>29775</v>
+        <v>27649</v>
       </c>
     </row>
     <row r="16">
@@ -22314,7 +22355,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>KES 162,275</t>
+          <t>KES 160,149</t>
         </is>
       </c>
     </row>
@@ -22333,7 +22374,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KES 1,615,182</t>
+          <t>KES 1,629,508</t>
         </is>
       </c>
     </row>
@@ -22345,7 +22386,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KES 66,000</t>
+          <t>KES 51,830</t>
         </is>
       </c>
     </row>
@@ -22369,7 +22410,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KES 162,275</t>
+          <t>KES 160,149</t>
         </is>
       </c>
     </row>
@@ -22381,7 +22422,7 @@
       </c>
       <c r="B24" s="10" t="inlineStr">
         <is>
-          <t>KES 1,843,457</t>
+          <t>KES 1,841,487</t>
         </is>
       </c>
     </row>
@@ -22405,7 +22446,7 @@
       </c>
       <c r="B26" s="11" t="inlineStr">
         <is>
-          <t>KES 843,457</t>
+          <t>KES 841,487</t>
         </is>
       </c>
     </row>
